--- a/teaching/traditional_assets/database/data/switzerland/switzerland_oil_gas_production_and_exploration.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_oil_gas_production_and_exploration.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="nyse_rig" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.198</v>
+        <v>-0.16</v>
       </c>
       <c r="G2">
-        <v>0.3794349540078844</v>
+        <v>0.2830362630608482</v>
       </c>
       <c r="H2">
-        <v>0.3794349540078844</v>
+        <v>0.2830362630608482</v>
       </c>
       <c r="I2">
-        <v>-0.02273357225645556</v>
+        <v>0.06034500109548803</v>
       </c>
       <c r="J2">
-        <v>-0.02273357225645556</v>
+        <v>0.06034500109548803</v>
       </c>
       <c r="K2">
-        <v>-1446</v>
+        <v>-581</v>
       </c>
       <c r="L2">
-        <v>-0.4750328515111695</v>
+        <v>-0.1785494775660725</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +635,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1906</v>
+        <v>1382</v>
       </c>
       <c r="V2">
-        <v>0.4580959934626385</v>
+        <v>0.9726229854317685</v>
       </c>
       <c r="W2">
-        <v>-0.120882795519144</v>
+        <v>-0.04868851085225844</v>
       </c>
       <c r="X2">
-        <v>0.1974672083699461</v>
+        <v>0.2783945346560636</v>
       </c>
       <c r="Y2">
-        <v>-0.31835000388909</v>
+        <v>-0.327083045508322</v>
       </c>
       <c r="Z2">
-        <v>0.1593049617068893</v>
+        <v>0.1625603051658285</v>
       </c>
       <c r="AA2">
-        <v>-0.003621570857775455</v>
+        <v>0.009809701793314786</v>
       </c>
       <c r="AB2">
-        <v>0.1093479651686712</v>
+        <v>0.1172459128772852</v>
       </c>
       <c r="AC2">
-        <v>-0.1129695360264466</v>
+        <v>-0.1074362110839704</v>
       </c>
       <c r="AD2">
-        <v>10001</v>
+        <v>8434</v>
       </c>
       <c r="AE2">
-        <v>126.0049697432537</v>
+        <v>113.1868321764098</v>
       </c>
       <c r="AF2">
-        <v>10127.00496974325</v>
+        <v>8547.18683217641</v>
       </c>
       <c r="AG2">
-        <v>8221.004969743253</v>
+        <v>7165.18683217641</v>
       </c>
       <c r="AH2">
-        <v>0.7087915792766565</v>
+        <v>0.8574550940494001</v>
       </c>
       <c r="AI2">
-        <v>0.4588790923572422</v>
+        <v>0.4284264054305089</v>
       </c>
       <c r="AJ2">
-        <v>0.6639638878355316</v>
+        <v>0.8345113405241642</v>
       </c>
       <c r="AK2">
-        <v>0.4077271707307393</v>
+        <v>0.3858851107508253</v>
       </c>
       <c r="AL2">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="AM2">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="AN2">
-        <v>10.18431771894094</v>
+        <v>7.016638935108153</v>
       </c>
       <c r="AO2">
-        <v>-0.09323308270676692</v>
+        <v>0.3284789644012945</v>
       </c>
       <c r="AP2">
-        <v>8.371695488536918</v>
+        <v>5.961053936918811</v>
       </c>
       <c r="AQ2">
-        <v>-0.1008130081300813</v>
+        <v>0.3446519524617996</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +721,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.198</v>
+        <v>-0.16</v>
       </c>
       <c r="G3">
-        <v>0.3794349540078844</v>
+        <v>0.2830362630608482</v>
       </c>
       <c r="H3">
-        <v>0.3794349540078844</v>
+        <v>0.2830362630608482</v>
       </c>
       <c r="I3">
-        <v>-0.02273357225645556</v>
+        <v>0.06034500109548803</v>
       </c>
       <c r="J3">
-        <v>-0.02273357225645556</v>
+        <v>0.06034500109548803</v>
       </c>
       <c r="K3">
-        <v>-1446</v>
+        <v>-581</v>
       </c>
       <c r="L3">
-        <v>-0.4750328515111695</v>
+        <v>-0.1785494775660725</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +763,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1906</v>
+        <v>1382</v>
       </c>
       <c r="V3">
-        <v>0.4580959934626385</v>
+        <v>0.9726229854317685</v>
       </c>
       <c r="W3">
-        <v>-0.120882795519144</v>
+        <v>-0.04868851085225844</v>
       </c>
       <c r="X3">
-        <v>0.1974672083699461</v>
+        <v>0.2783945346560636</v>
       </c>
       <c r="Y3">
-        <v>-0.31835000388909</v>
+        <v>-0.327083045508322</v>
       </c>
       <c r="Z3">
-        <v>0.1593049617068893</v>
+        <v>0.1625603051658285</v>
       </c>
       <c r="AA3">
-        <v>-0.003621570857775455</v>
+        <v>0.009809701793314786</v>
       </c>
       <c r="AB3">
-        <v>0.1093479651686712</v>
+        <v>0.1172459128772852</v>
       </c>
       <c r="AC3">
-        <v>-0.1129695360264466</v>
+        <v>-0.1074362110839704</v>
       </c>
       <c r="AD3">
-        <v>10001</v>
+        <v>8434</v>
       </c>
       <c r="AE3">
-        <v>126.0049697432537</v>
+        <v>113.1868321764098</v>
       </c>
       <c r="AF3">
-        <v>10127.00496974325</v>
+        <v>8547.18683217641</v>
       </c>
       <c r="AG3">
-        <v>8221.004969743253</v>
+        <v>7165.18683217641</v>
       </c>
       <c r="AH3">
-        <v>0.7087915792766565</v>
+        <v>0.8574550940494001</v>
       </c>
       <c r="AI3">
-        <v>0.4588790923572422</v>
+        <v>0.4284264054305089</v>
       </c>
       <c r="AJ3">
-        <v>0.6639638878355316</v>
+        <v>0.8345113405241642</v>
       </c>
       <c r="AK3">
-        <v>0.4077271707307393</v>
+        <v>0.3858851107508253</v>
       </c>
       <c r="AL3">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="AM3">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="AN3">
-        <v>10.18431771894094</v>
+        <v>7.016638935108153</v>
       </c>
       <c r="AO3">
-        <v>-0.09323308270676692</v>
+        <v>0.3284789644012945</v>
       </c>
       <c r="AP3">
-        <v>8.371695488536918</v>
+        <v>5.961053936918811</v>
       </c>
       <c r="AQ3">
-        <v>-0.1008130081300813</v>
+        <v>0.3446519524617996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Transocean Ltd. (NYSE:RIG)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NYSE:RIG</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Oil/Gas (Production and Exploration)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.8574550940494</v>
+      </c>
+      <c r="F2">
+        <v>0.18</v>
+      </c>
+      <c r="G2">
+        <v>1420.9</v>
+      </c>
+      <c r="H2">
+        <v>20852.2749495113</v>
+      </c>
+      <c r="I2">
+        <v>8586.08683217641</v>
+      </c>
+      <c r="J2">
+        <v>21264.5305793031</v>
+      </c>
+      <c r="K2">
+        <v>8547.18683217641</v>
+      </c>
+      <c r="L2">
+        <v>1794.25562979175</v>
+      </c>
+      <c r="M2">
+        <v>0.117245912877285</v>
+      </c>
+      <c r="N2">
+        <v>0.0528858660357645</v>
+      </c>
+      <c r="O2">
+        <v>0.09045627072</v>
+      </c>
+      <c r="P2">
+        <v>0.01379592</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.278394534656064</v>
+      </c>
+      <c r="T2">
+        <v>0.0614665858972737</v>
+      </c>
+      <c r="U2">
+        <v>5.70115539525558</v>
+      </c>
+      <c r="V2">
+        <v>1.10522427748461</v>
+      </c>
+      <c r="W2">
+        <v>13.86454794781041</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>3.469446951953614e-18</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>1420.9</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.1062192</v>
+      </c>
+      <c r="AD2">
+        <v>0.1484</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1202</v>
+      </c>
+      <c r="AH2">
+        <v>799</v>
+      </c>
+      <c r="AI2">
+        <v>346</v>
+      </c>
+      <c r="AJ2">
+        <v>8547.18683217641</v>
+      </c>
+      <c r="AK2">
+        <v>8434</v>
+      </c>
+      <c r="AL2">
+        <v>618</v>
+      </c>
+      <c r="AM2">
+        <v>8434</v>
+      </c>
+      <c r="AN2">
+        <v>1382</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05325060910620952</v>
+      </c>
+      <c r="C2">
+        <v>22470.05770821442</v>
+      </c>
+      <c r="D2">
+        <v>21088.05770821442</v>
+      </c>
+      <c r="E2">
+        <v>-8547.18683217641</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1382</v>
+      </c>
+      <c r="H2">
+        <v>1420.9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1202</v>
+      </c>
+      <c r="K2">
+        <v>799</v>
+      </c>
+      <c r="L2">
+        <v>403</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>403</v>
+      </c>
+      <c r="O2">
+        <v>59.8052</v>
+      </c>
+      <c r="P2">
+        <v>343.1948</v>
+      </c>
+      <c r="Q2">
+        <v>1142.1948</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05325060910620952</v>
+      </c>
+      <c r="T2">
+        <v>0.9311569725891848</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.1484</v>
+      </c>
+      <c r="W2">
+        <v>0.01379592</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05323034560229591</v>
+      </c>
+      <c r="C3">
+        <v>22380.10400989421</v>
+      </c>
+      <c r="D3">
+        <v>21097.78487821597</v>
+      </c>
+      <c r="E3">
+        <v>-8447.505963854646</v>
+      </c>
+      <c r="F3">
+        <v>99.68086832176411</v>
+      </c>
+      <c r="G3">
+        <v>1382</v>
+      </c>
+      <c r="H3">
+        <v>1420.9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1202</v>
+      </c>
+      <c r="K3">
+        <v>799</v>
+      </c>
+      <c r="L3">
+        <v>403</v>
+      </c>
+      <c r="M3">
+        <v>1.614830066812579</v>
+      </c>
+      <c r="N3">
+        <v>401.3851699331874</v>
+      </c>
+      <c r="O3">
+        <v>59.56555921808501</v>
+      </c>
+      <c r="P3">
+        <v>341.8196107151024</v>
+      </c>
+      <c r="Q3">
+        <v>1140.819610715102</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05362867313363223</v>
+      </c>
+      <c r="T3">
+        <v>0.939166803678649</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.1484</v>
+      </c>
+      <c r="W3">
+        <v>0.01379592</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>249.5618630605874</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05321008209838229</v>
+      </c>
+      <c r="C4">
+        <v>22290.15928930933</v>
+      </c>
+      <c r="D4">
+        <v>21107.52102595286</v>
+      </c>
+      <c r="E4">
+        <v>-8347.825095532882</v>
+      </c>
+      <c r="F4">
+        <v>199.3617366435282</v>
+      </c>
+      <c r="G4">
+        <v>1382</v>
+      </c>
+      <c r="H4">
+        <v>1420.9</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1202</v>
+      </c>
+      <c r="K4">
+        <v>799</v>
+      </c>
+      <c r="L4">
+        <v>403</v>
+      </c>
+      <c r="M4">
+        <v>3.229660133625158</v>
+      </c>
+      <c r="N4">
+        <v>399.7703398663749</v>
+      </c>
+      <c r="O4">
+        <v>59.32591843617003</v>
+      </c>
+      <c r="P4">
+        <v>340.4444214302048</v>
+      </c>
+      <c r="Q4">
+        <v>1139.444421430205</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05401445275345132</v>
+      </c>
+      <c r="T4">
+        <v>0.9473401007087144</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.1484</v>
+      </c>
+      <c r="W4">
+        <v>0.01379592</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>124.7809315302937</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05318981859446867</v>
+      </c>
+      <c r="C5">
+        <v>22200.22355889457</v>
+      </c>
+      <c r="D5">
+        <v>21117.26616385986</v>
+      </c>
+      <c r="E5">
+        <v>-8248.144227211118</v>
+      </c>
+      <c r="F5">
+        <v>299.0426049652923</v>
+      </c>
+      <c r="G5">
+        <v>1382</v>
+      </c>
+      <c r="H5">
+        <v>1420.9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1202</v>
+      </c>
+      <c r="K5">
+        <v>799</v>
+      </c>
+      <c r="L5">
+        <v>403</v>
+      </c>
+      <c r="M5">
+        <v>4.844490200437736</v>
+      </c>
+      <c r="N5">
+        <v>398.1555097995623</v>
+      </c>
+      <c r="O5">
+        <v>59.08627765425504</v>
+      </c>
+      <c r="P5">
+        <v>339.0692321453072</v>
+      </c>
+      <c r="Q5">
+        <v>1138.069232145307</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05440818659223574</v>
+      </c>
+      <c r="T5">
+        <v>0.9556819193270286</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.1484</v>
+      </c>
+      <c r="W5">
+        <v>0.01379592</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>83.18728768686248</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05316955509055505</v>
+      </c>
+      <c r="C6">
+        <v>22110.29683110769</v>
+      </c>
+      <c r="D6">
+        <v>21127.02030439475</v>
+      </c>
+      <c r="E6">
+        <v>-8148.463358889354</v>
+      </c>
+      <c r="F6">
+        <v>398.7234732870564</v>
+      </c>
+      <c r="G6">
+        <v>1382</v>
+      </c>
+      <c r="H6">
+        <v>1420.9</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1202</v>
+      </c>
+      <c r="K6">
+        <v>799</v>
+      </c>
+      <c r="L6">
+        <v>403</v>
+      </c>
+      <c r="M6">
+        <v>6.459320267250315</v>
+      </c>
+      <c r="N6">
+        <v>396.5406797327497</v>
+      </c>
+      <c r="O6">
+        <v>58.84663687234006</v>
+      </c>
+      <c r="P6">
+        <v>337.6940428604096</v>
+      </c>
+      <c r="Q6">
+        <v>1136.69404286041</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05481012321932818</v>
+      </c>
+      <c r="T6">
+        <v>0.9641975258332244</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.1484</v>
+      </c>
+      <c r="W6">
+        <v>0.01379592</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>62.39046576514686</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05314929158664145</v>
+      </c>
+      <c r="C7">
+        <v>22020.3791184295</v>
+      </c>
+      <c r="D7">
+        <v>21136.78346003832</v>
+      </c>
+      <c r="E7">
+        <v>-8048.78249056759</v>
+      </c>
+      <c r="F7">
+        <v>498.4043416088205</v>
+      </c>
+      <c r="G7">
+        <v>1382</v>
+      </c>
+      <c r="H7">
+        <v>1420.9</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1202</v>
+      </c>
+      <c r="K7">
+        <v>799</v>
+      </c>
+      <c r="L7">
+        <v>403</v>
+      </c>
+      <c r="M7">
+        <v>8.074150334062894</v>
+      </c>
+      <c r="N7">
+        <v>394.9258496659371</v>
+      </c>
+      <c r="O7">
+        <v>58.60699609042507</v>
+      </c>
+      <c r="P7">
+        <v>336.318853575512</v>
+      </c>
+      <c r="Q7">
+        <v>1135.318853575512</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05522052167014889</v>
+      </c>
+      <c r="T7">
+        <v>0.9728924082658663</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.1484</v>
+      </c>
+      <c r="W7">
+        <v>0.01379592</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>49.91237261211748</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05312902808272783</v>
+      </c>
+      <c r="C8">
+        <v>21930.47043336389</v>
+      </c>
+      <c r="D8">
+        <v>21146.55564329448</v>
+      </c>
+      <c r="E8">
+        <v>-7949.101622245826</v>
+      </c>
+      <c r="F8">
+        <v>598.0852099305846</v>
+      </c>
+      <c r="G8">
+        <v>1382</v>
+      </c>
+      <c r="H8">
+        <v>1420.9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1202</v>
+      </c>
+      <c r="K8">
+        <v>799</v>
+      </c>
+      <c r="L8">
+        <v>403</v>
+      </c>
+      <c r="M8">
+        <v>9.688980400875472</v>
+      </c>
+      <c r="N8">
+        <v>393.3110195991245</v>
+      </c>
+      <c r="O8">
+        <v>58.36735530851008</v>
+      </c>
+      <c r="P8">
+        <v>334.9436642906144</v>
+      </c>
+      <c r="Q8">
+        <v>1133.943664290614</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05563965200290195</v>
+      </c>
+      <c r="T8">
+        <v>0.9817722881970753</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.1484</v>
+      </c>
+      <c r="W8">
+        <v>0.01379592</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>41.59364384343123</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05310876457881421</v>
+      </c>
+      <c r="C9">
+        <v>21840.57078843789</v>
+      </c>
+      <c r="D9">
+        <v>21156.33686669024</v>
+      </c>
+      <c r="E9">
+        <v>-7849.420753924062</v>
+      </c>
+      <c r="F9">
+        <v>697.7660782523487</v>
+      </c>
+      <c r="G9">
+        <v>1382</v>
+      </c>
+      <c r="H9">
+        <v>1420.9</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1202</v>
+      </c>
+      <c r="K9">
+        <v>799</v>
+      </c>
+      <c r="L9">
+        <v>403</v>
+      </c>
+      <c r="M9">
+        <v>11.30381046768805</v>
+      </c>
+      <c r="N9">
+        <v>391.696189532312</v>
+      </c>
+      <c r="O9">
+        <v>58.1277145265951</v>
+      </c>
+      <c r="P9">
+        <v>333.5684750057169</v>
+      </c>
+      <c r="Q9">
+        <v>1132.568475005717</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05606779589119808</v>
+      </c>
+      <c r="T9">
+        <v>0.9908431332880949</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.1484</v>
+      </c>
+      <c r="W9">
+        <v>0.01379592</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>35.65169472294107</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.0530885010749006</v>
+      </c>
+      <c r="C10">
+        <v>21750.68019620168</v>
+      </c>
+      <c r="D10">
+        <v>21166.12714277579</v>
+      </c>
+      <c r="E10">
+        <v>-7749.739885602297</v>
+      </c>
+      <c r="F10">
+        <v>797.4469465741129</v>
+      </c>
+      <c r="G10">
+        <v>1382</v>
+      </c>
+      <c r="H10">
+        <v>1420.9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1202</v>
+      </c>
+      <c r="K10">
+        <v>799</v>
+      </c>
+      <c r="L10">
+        <v>403</v>
+      </c>
+      <c r="M10">
+        <v>12.91864053450063</v>
+      </c>
+      <c r="N10">
+        <v>390.0813594654994</v>
+      </c>
+      <c r="O10">
+        <v>57.88807374468011</v>
+      </c>
+      <c r="P10">
+        <v>332.1932857208192</v>
+      </c>
+      <c r="Q10">
+        <v>1131.193285720819</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.05650524725532674</v>
+      </c>
+      <c r="T10">
+        <v>1.000111170663702</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.1484</v>
+      </c>
+      <c r="W10">
+        <v>0.01379592</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>31.19523288257342</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05306823757098699</v>
+      </c>
+      <c r="C11">
+        <v>21660.79866922871</v>
+      </c>
+      <c r="D11">
+        <v>21175.92648412459</v>
+      </c>
+      <c r="E11">
+        <v>-7650.059017280533</v>
+      </c>
+      <c r="F11">
+        <v>897.1278148958769</v>
+      </c>
+      <c r="G11">
+        <v>1382</v>
+      </c>
+      <c r="H11">
+        <v>1420.9</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1202</v>
+      </c>
+      <c r="K11">
+        <v>799</v>
+      </c>
+      <c r="L11">
+        <v>403</v>
+      </c>
+      <c r="M11">
+        <v>14.53347060131321</v>
+      </c>
+      <c r="N11">
+        <v>388.4665293986868</v>
+      </c>
+      <c r="O11">
+        <v>57.64843296276513</v>
+      </c>
+      <c r="P11">
+        <v>330.8180964359217</v>
+      </c>
+      <c r="Q11">
+        <v>1129.818096435922</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05695231293515053</v>
+      </c>
+      <c r="T11">
+        <v>1.009582901168444</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.1484</v>
+      </c>
+      <c r="W11">
+        <v>0.01379592</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>27.72909589562083</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05304797406707337</v>
+      </c>
+      <c r="C12">
+        <v>21570.92622011575</v>
+      </c>
+      <c r="D12">
+        <v>21185.73490333339</v>
+      </c>
+      <c r="E12">
+        <v>-7550.378148958769</v>
+      </c>
+      <c r="F12">
+        <v>996.808683217641</v>
+      </c>
+      <c r="G12">
+        <v>1382</v>
+      </c>
+      <c r="H12">
+        <v>1420.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1202</v>
+      </c>
+      <c r="K12">
+        <v>799</v>
+      </c>
+      <c r="L12">
+        <v>403</v>
+      </c>
+      <c r="M12">
+        <v>16.14830066812579</v>
+      </c>
+      <c r="N12">
+        <v>386.8516993318742</v>
+      </c>
+      <c r="O12">
+        <v>57.40879218085013</v>
+      </c>
+      <c r="P12">
+        <v>329.4429071510241</v>
+      </c>
+      <c r="Q12">
+        <v>1128.442907151024</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.05740931340785931</v>
+      </c>
+      <c r="T12">
+        <v>1.01926511457329</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.1484</v>
+      </c>
+      <c r="W12">
+        <v>0.01379592</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>24.95618630605874</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05302771056315976</v>
+      </c>
+      <c r="C13">
+        <v>21481.06286148287</v>
+      </c>
+      <c r="D13">
+        <v>21195.55241302227</v>
+      </c>
+      <c r="E13">
+        <v>-7450.697280637005</v>
+      </c>
+      <c r="F13">
+        <v>1096.489551539405</v>
+      </c>
+      <c r="G13">
+        <v>1382</v>
+      </c>
+      <c r="H13">
+        <v>1420.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1202</v>
+      </c>
+      <c r="K13">
+        <v>799</v>
+      </c>
+      <c r="L13">
+        <v>403</v>
+      </c>
+      <c r="M13">
+        <v>17.76313073493836</v>
+      </c>
+      <c r="N13">
+        <v>385.2368692650616</v>
+      </c>
+      <c r="O13">
+        <v>57.16915139893514</v>
+      </c>
+      <c r="P13">
+        <v>328.0677178661265</v>
+      </c>
+      <c r="Q13">
+        <v>1127.067717866126</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05787658355411208</v>
+      </c>
+      <c r="T13">
+        <v>1.029164905807459</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.1484</v>
+      </c>
+      <c r="W13">
+        <v>0.01379592</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>22.68744209641704</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05300744705924613</v>
+      </c>
+      <c r="C14">
+        <v>21391.20860597357</v>
+      </c>
+      <c r="D14">
+        <v>21205.37902583474</v>
+      </c>
+      <c r="E14">
+        <v>-7351.016412315241</v>
+      </c>
+      <c r="F14">
+        <v>1196.170419861169</v>
+      </c>
+      <c r="G14">
+        <v>1382</v>
+      </c>
+      <c r="H14">
+        <v>1420.9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1202</v>
+      </c>
+      <c r="K14">
+        <v>799</v>
+      </c>
+      <c r="L14">
+        <v>403</v>
+      </c>
+      <c r="M14">
+        <v>19.37796080175094</v>
+      </c>
+      <c r="N14">
+        <v>383.6220391982491</v>
+      </c>
+      <c r="O14">
+        <v>56.92951061702016</v>
+      </c>
+      <c r="P14">
+        <v>326.6925285812289</v>
+      </c>
+      <c r="Q14">
+        <v>1125.692528581229</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05835447347641606</v>
+      </c>
+      <c r="T14">
+        <v>1.039289692296951</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.1484</v>
+      </c>
+      <c r="W14">
+        <v>0.01379592</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>20.79682192171562</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05298718355533254</v>
+      </c>
+      <c r="C15">
+        <v>21301.3634662548</v>
+      </c>
+      <c r="D15">
+        <v>21215.21475443773</v>
+      </c>
+      <c r="E15">
+        <v>-7251.335543993477</v>
+      </c>
+      <c r="F15">
+        <v>1295.851288182933</v>
+      </c>
+      <c r="G15">
+        <v>1382</v>
+      </c>
+      <c r="H15">
+        <v>1420.9</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1202</v>
+      </c>
+      <c r="K15">
+        <v>799</v>
+      </c>
+      <c r="L15">
+        <v>403</v>
+      </c>
+      <c r="M15">
+        <v>20.99279086856352</v>
+      </c>
+      <c r="N15">
+        <v>382.0072091314365</v>
+      </c>
+      <c r="O15">
+        <v>56.68986983510517</v>
+      </c>
+      <c r="P15">
+        <v>325.3173392963313</v>
+      </c>
+      <c r="Q15">
+        <v>1124.317339296331</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.05884334937394545</v>
+      </c>
+      <c r="T15">
+        <v>1.049647232498844</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.1484</v>
+      </c>
+      <c r="W15">
+        <v>0.01379592</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>19.19706638927595</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05296692005141892</v>
+      </c>
+      <c r="C16">
+        <v>21211.52745501704</v>
+      </c>
+      <c r="D16">
+        <v>21225.05961152173</v>
+      </c>
+      <c r="E16">
+        <v>-7151.654675671713</v>
+      </c>
+      <c r="F16">
+        <v>1395.532156504697</v>
+      </c>
+      <c r="G16">
+        <v>1382</v>
+      </c>
+      <c r="H16">
+        <v>1420.9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1202</v>
+      </c>
+      <c r="K16">
+        <v>799</v>
+      </c>
+      <c r="L16">
+        <v>403</v>
+      </c>
+      <c r="M16">
+        <v>22.6076209353761</v>
+      </c>
+      <c r="N16">
+        <v>380.3923790646239</v>
+      </c>
+      <c r="O16">
+        <v>56.45022905319019</v>
+      </c>
+      <c r="P16">
+        <v>323.9421500114337</v>
+      </c>
+      <c r="Q16">
+        <v>1122.942150011434</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.05934359447839409</v>
+      </c>
+      <c r="T16">
+        <v>1.060245645728688</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.1484</v>
+      </c>
+      <c r="W16">
+        <v>0.01379592</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>17.82584736147053</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.0529466565475053</v>
+      </c>
+      <c r="C17">
+        <v>21121.70058497431</v>
+      </c>
+      <c r="D17">
+        <v>21234.91360980078</v>
+      </c>
+      <c r="E17">
+        <v>-7051.973807349949</v>
+      </c>
+      <c r="F17">
+        <v>1495.213024826461</v>
+      </c>
+      <c r="G17">
+        <v>1382</v>
+      </c>
+      <c r="H17">
+        <v>1420.9</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1202</v>
+      </c>
+      <c r="K17">
+        <v>799</v>
+      </c>
+      <c r="L17">
+        <v>403</v>
+      </c>
+      <c r="M17">
+        <v>24.22245100218868</v>
+      </c>
+      <c r="N17">
+        <v>378.7775489978113</v>
+      </c>
+      <c r="O17">
+        <v>56.2105882712752</v>
+      </c>
+      <c r="P17">
+        <v>322.5669607265361</v>
+      </c>
+      <c r="Q17">
+        <v>1121.566960726536</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.05985561005588859</v>
+      </c>
+      <c r="T17">
+        <v>1.07109343338747</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.1484</v>
+      </c>
+      <c r="W17">
+        <v>0.01379592</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>16.6374575373725</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05292639304359169</v>
+      </c>
+      <c r="C18">
+        <v>21031.88286886428</v>
+      </c>
+      <c r="D18">
+        <v>21244.7767620125</v>
+      </c>
+      <c r="E18">
+        <v>-6952.292939028184</v>
+      </c>
+      <c r="F18">
+        <v>1594.893893148226</v>
+      </c>
+      <c r="G18">
+        <v>1382</v>
+      </c>
+      <c r="H18">
+        <v>1420.9</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1202</v>
+      </c>
+      <c r="K18">
+        <v>799</v>
+      </c>
+      <c r="L18">
+        <v>403</v>
+      </c>
+      <c r="M18">
+        <v>25.83728106900126</v>
+      </c>
+      <c r="N18">
+        <v>377.1627189309987</v>
+      </c>
+      <c r="O18">
+        <v>55.97094748936021</v>
+      </c>
+      <c r="P18">
+        <v>321.1917714416385</v>
+      </c>
+      <c r="Q18">
+        <v>1120.191771441639</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06037981648046629</v>
+      </c>
+      <c r="T18">
+        <v>1.082199501704794</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.1484</v>
+      </c>
+      <c r="W18">
+        <v>0.01379592</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>15.59761644128671</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05290612953967807</v>
+      </c>
+      <c r="C19">
+        <v>20942.07431944825</v>
+      </c>
+      <c r="D19">
+        <v>21254.64908091824</v>
+      </c>
+      <c r="E19">
+        <v>-6852.61207070642</v>
+      </c>
+      <c r="F19">
+        <v>1694.57476146999</v>
+      </c>
+      <c r="G19">
+        <v>1382</v>
+      </c>
+      <c r="H19">
+        <v>1420.9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1202</v>
+      </c>
+      <c r="K19">
+        <v>799</v>
+      </c>
+      <c r="L19">
+        <v>403</v>
+      </c>
+      <c r="M19">
+        <v>27.45211113581384</v>
+      </c>
+      <c r="N19">
+        <v>375.5478888641862</v>
+      </c>
+      <c r="O19">
+        <v>55.73130670744523</v>
+      </c>
+      <c r="P19">
+        <v>319.8165821567409</v>
+      </c>
+      <c r="Q19">
+        <v>1118.816582156741</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.0609166543851543</v>
+      </c>
+      <c r="T19">
+        <v>1.09357318612615</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.1484</v>
+      </c>
+      <c r="W19">
+        <v>0.01379592</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>14.68010959179926</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.05288586603576445</v>
+      </c>
+      <c r="C20">
+        <v>20852.27494951132</v>
+      </c>
+      <c r="D20">
+        <v>21264.53057930307</v>
+      </c>
+      <c r="E20">
+        <v>-6752.931202384657</v>
+      </c>
+      <c r="F20">
+        <v>1794.255629791754</v>
+      </c>
+      <c r="G20">
+        <v>1382</v>
+      </c>
+      <c r="H20">
+        <v>1420.9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1202</v>
+      </c>
+      <c r="K20">
+        <v>799</v>
+      </c>
+      <c r="L20">
+        <v>403</v>
+      </c>
+      <c r="M20">
+        <v>29.06694120262642</v>
+      </c>
+      <c r="N20">
+        <v>373.9330587973736</v>
+      </c>
+      <c r="O20">
+        <v>55.49166592553024</v>
+      </c>
+      <c r="P20">
+        <v>318.4413928718433</v>
+      </c>
+      <c r="Q20">
+        <v>1117.441392871843</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06146658589727372</v>
+      </c>
+      <c r="T20">
+        <v>1.105224277484613</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.1484</v>
+      </c>
+      <c r="W20">
+        <v>0.01379592</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>13.86454794781041</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.05312448893185084</v>
+      </c>
+      <c r="C21">
+        <v>20636.80941388536</v>
+      </c>
+      <c r="D21">
+        <v>21148.74591199887</v>
+      </c>
+      <c r="E21">
+        <v>-6653.250334062893</v>
+      </c>
+      <c r="F21">
+        <v>1893.936498113518</v>
+      </c>
+      <c r="G21">
+        <v>1382</v>
+      </c>
+      <c r="H21">
+        <v>1420.9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1202</v>
+      </c>
+      <c r="K21">
+        <v>799</v>
+      </c>
+      <c r="L21">
+        <v>403</v>
+      </c>
+      <c r="M21">
+        <v>33.71206966642062</v>
+      </c>
+      <c r="N21">
+        <v>369.2879303335794</v>
+      </c>
+      <c r="O21">
+        <v>54.80232886150318</v>
+      </c>
+      <c r="P21">
+        <v>314.4856014720762</v>
+      </c>
+      <c r="Q21">
+        <v>1113.485601472076</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06203009596524794</v>
+      </c>
+      <c r="T21">
+        <v>1.117163050111185</v>
+      </c>
+      <c r="U21">
+        <v>0.0178</v>
+      </c>
+      <c r="V21">
+        <v>0.1484</v>
+      </c>
+      <c r="W21">
+        <v>0.01515848</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>11.95417558125818</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.05311785102793723</v>
+      </c>
+      <c r="C22">
+        <v>20540.33233899398</v>
+      </c>
+      <c r="D22">
+        <v>21151.94970542927</v>
+      </c>
+      <c r="E22">
+        <v>-6553.569465741129</v>
+      </c>
+      <c r="F22">
+        <v>1993.617366435282</v>
+      </c>
+      <c r="G22">
+        <v>1382</v>
+      </c>
+      <c r="H22">
+        <v>1420.9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1202</v>
+      </c>
+      <c r="K22">
+        <v>799</v>
+      </c>
+      <c r="L22">
+        <v>403</v>
+      </c>
+      <c r="M22">
+        <v>35.48638912254803</v>
+      </c>
+      <c r="N22">
+        <v>367.513610877452</v>
+      </c>
+      <c r="O22">
+        <v>54.53901985421388</v>
+      </c>
+      <c r="P22">
+        <v>312.9745910232381</v>
+      </c>
+      <c r="Q22">
+        <v>1111.974591023238</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06260769378492154</v>
+      </c>
+      <c r="T22">
+        <v>1.129400292053422</v>
+      </c>
+      <c r="U22">
+        <v>0.0178</v>
+      </c>
+      <c r="V22">
+        <v>0.1484</v>
+      </c>
+      <c r="W22">
+        <v>0.01515848</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>11.35646680219527</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.0531112131240236</v>
+      </c>
+      <c r="C23">
+        <v>20443.85623492591</v>
+      </c>
+      <c r="D23">
+        <v>21155.15446968296</v>
+      </c>
+      <c r="E23">
+        <v>-6453.888597419364</v>
+      </c>
+      <c r="F23">
+        <v>2093.298234757046</v>
+      </c>
+      <c r="G23">
+        <v>1382</v>
+      </c>
+      <c r="H23">
+        <v>1420.9</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1202</v>
+      </c>
+      <c r="K23">
+        <v>799</v>
+      </c>
+      <c r="L23">
+        <v>403</v>
+      </c>
+      <c r="M23">
+        <v>37.26070857867543</v>
+      </c>
+      <c r="N23">
+        <v>365.7392914213246</v>
+      </c>
+      <c r="O23">
+        <v>54.27571084692457</v>
+      </c>
+      <c r="P23">
+        <v>311.4635805744</v>
+      </c>
+      <c r="Q23">
+        <v>1110.4635805744</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06319991433420709</v>
+      </c>
+      <c r="T23">
+        <v>1.141947337589133</v>
+      </c>
+      <c r="U23">
+        <v>0.0178</v>
+      </c>
+      <c r="V23">
+        <v>0.1484</v>
+      </c>
+      <c r="W23">
+        <v>0.01515848</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>10.8156826687574</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.05351674962010999</v>
+      </c>
+      <c r="C24">
+        <v>20150.14963446621</v>
+      </c>
+      <c r="D24">
+        <v>20961.12873754502</v>
+      </c>
+      <c r="E24">
+        <v>-6354.2077290976</v>
+      </c>
+      <c r="F24">
+        <v>2192.97910307881</v>
+      </c>
+      <c r="G24">
+        <v>1382</v>
+      </c>
+      <c r="H24">
+        <v>1420.9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1202</v>
+      </c>
+      <c r="K24">
+        <v>799</v>
+      </c>
+      <c r="L24">
+        <v>403</v>
+      </c>
+      <c r="M24">
+        <v>43.85958206157621</v>
+      </c>
+      <c r="N24">
+        <v>359.1404179384238</v>
+      </c>
+      <c r="O24">
+        <v>53.2964380220621</v>
+      </c>
+      <c r="P24">
+        <v>305.8439799163617</v>
+      </c>
+      <c r="Q24">
+        <v>1104.843979916362</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06380732002578204</v>
+      </c>
+      <c r="T24">
+        <v>1.154816102241145</v>
+      </c>
+      <c r="U24">
+        <v>0.02</v>
+      </c>
+      <c r="V24">
+        <v>0.1484</v>
+      </c>
+      <c r="W24">
+        <v>0.01703200000000001</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>9.188414049048902</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05352884691619639</v>
+      </c>
+      <c r="C25">
+        <v>20044.73556262857</v>
+      </c>
+      <c r="D25">
+        <v>20955.39553402915</v>
+      </c>
+      <c r="E25">
+        <v>-6254.526860775836</v>
+      </c>
+      <c r="F25">
+        <v>2292.659971400574</v>
+      </c>
+      <c r="G25">
+        <v>1382</v>
+      </c>
+      <c r="H25">
+        <v>1420.9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1202</v>
+      </c>
+      <c r="K25">
+        <v>799</v>
+      </c>
+      <c r="L25">
+        <v>403</v>
+      </c>
+      <c r="M25">
+        <v>45.85319942801149</v>
+      </c>
+      <c r="N25">
+        <v>357.1468005719885</v>
+      </c>
+      <c r="O25">
+        <v>53.00058520488309</v>
+      </c>
+      <c r="P25">
+        <v>304.1462153671054</v>
+      </c>
+      <c r="Q25">
+        <v>1103.146215367105</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.06443050248856673</v>
+      </c>
+      <c r="T25">
+        <v>1.168019120520482</v>
+      </c>
+      <c r="U25">
+        <v>0.02</v>
+      </c>
+      <c r="V25">
+        <v>0.1484</v>
+      </c>
+      <c r="W25">
+        <v>0.01703200000000001</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>8.788917786046774</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.05354094421228276</v>
+      </c>
+      <c r="C26">
+        <v>19939.32462617883</v>
+      </c>
+      <c r="D26">
+        <v>20949.66546590117</v>
+      </c>
+      <c r="E26">
+        <v>-6154.845992454072</v>
+      </c>
+      <c r="F26">
+        <v>2392.340839722338</v>
+      </c>
+      <c r="G26">
+        <v>1382</v>
+      </c>
+      <c r="H26">
+        <v>1420.9</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1202</v>
+      </c>
+      <c r="K26">
+        <v>799</v>
+      </c>
+      <c r="L26">
+        <v>403</v>
+      </c>
+      <c r="M26">
+        <v>47.84681679444677</v>
+      </c>
+      <c r="N26">
+        <v>355.1531832055532</v>
+      </c>
+      <c r="O26">
+        <v>52.7047323877041</v>
+      </c>
+      <c r="P26">
+        <v>302.4484508178491</v>
+      </c>
+      <c r="Q26">
+        <v>1101.448450817849</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.06507008448984573</v>
+      </c>
+      <c r="T26">
+        <v>1.181569586649274</v>
+      </c>
+      <c r="U26">
+        <v>0.02</v>
+      </c>
+      <c r="V26">
+        <v>0.1484</v>
+      </c>
+      <c r="W26">
+        <v>0.01703200000000001</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>8.422712878294824</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.05355304150836915</v>
+      </c>
+      <c r="C27">
+        <v>19833.91682254565</v>
+      </c>
+      <c r="D27">
+        <v>20943.93853058976</v>
+      </c>
+      <c r="E27">
+        <v>-6055.165124132308</v>
+      </c>
+      <c r="F27">
+        <v>2492.021708044103</v>
+      </c>
+      <c r="G27">
+        <v>1382</v>
+      </c>
+      <c r="H27">
+        <v>1420.9</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1202</v>
+      </c>
+      <c r="K27">
+        <v>799</v>
+      </c>
+      <c r="L27">
+        <v>403</v>
+      </c>
+      <c r="M27">
+        <v>49.84043416088206</v>
+      </c>
+      <c r="N27">
+        <v>353.1595658391179</v>
+      </c>
+      <c r="O27">
+        <v>52.4088795705251</v>
+      </c>
+      <c r="P27">
+        <v>300.7506862685929</v>
+      </c>
+      <c r="Q27">
+        <v>1099.750686268593</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.06572672201115887</v>
+      </c>
+      <c r="T27">
+        <v>1.195481398541502</v>
+      </c>
+      <c r="U27">
+        <v>0.02</v>
+      </c>
+      <c r="V27">
+        <v>0.1484</v>
+      </c>
+      <c r="W27">
+        <v>0.01703200000000001</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>8.085804363163032</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.05380869640445553</v>
+      </c>
+      <c r="C28">
+        <v>19613.93540935909</v>
+      </c>
+      <c r="D28">
+        <v>20823.63798572496</v>
+      </c>
+      <c r="E28">
+        <v>-5955.484255810544</v>
+      </c>
+      <c r="F28">
+        <v>2591.702576365867</v>
+      </c>
+      <c r="G28">
+        <v>1382</v>
+      </c>
+      <c r="H28">
+        <v>1420.9</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1202</v>
+      </c>
+      <c r="K28">
+        <v>799</v>
+      </c>
+      <c r="L28">
+        <v>403</v>
+      </c>
+      <c r="M28">
+        <v>54.68492436131979</v>
+      </c>
+      <c r="N28">
+        <v>348.3150756386802</v>
+      </c>
+      <c r="O28">
+        <v>51.68995722478015</v>
+      </c>
+      <c r="P28">
+        <v>296.6251184139001</v>
+      </c>
+      <c r="Q28">
+        <v>1095.6251184139</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.06640110649250748</v>
+      </c>
+      <c r="T28">
+        <v>1.209769205349735</v>
+      </c>
+      <c r="U28">
+        <v>0.0211</v>
+      </c>
+      <c r="V28">
+        <v>0.1484</v>
+      </c>
+      <c r="W28">
+        <v>0.01796876</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>7.369489940906885</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.05383016130054193</v>
+      </c>
+      <c r="C29">
+        <v>19504.21691232794</v>
+      </c>
+      <c r="D29">
+        <v>20813.60035701557</v>
+      </c>
+      <c r="E29">
+        <v>-5855.80338748878</v>
+      </c>
+      <c r="F29">
+        <v>2691.383444687631</v>
+      </c>
+      <c r="G29">
+        <v>1382</v>
+      </c>
+      <c r="H29">
+        <v>1420.9</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1202</v>
+      </c>
+      <c r="K29">
+        <v>799</v>
+      </c>
+      <c r="L29">
+        <v>403</v>
+      </c>
+      <c r="M29">
+        <v>56.78819068290901</v>
+      </c>
+      <c r="N29">
+        <v>346.211809317091</v>
+      </c>
+      <c r="O29">
+        <v>51.3778325026563</v>
+      </c>
+      <c r="P29">
+        <v>294.8339768144347</v>
+      </c>
+      <c r="Q29">
+        <v>1093.833976814435</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06709396726101634</v>
+      </c>
+      <c r="T29">
+        <v>1.224448458919838</v>
+      </c>
+      <c r="U29">
+        <v>0.0211</v>
+      </c>
+      <c r="V29">
+        <v>0.1484</v>
+      </c>
+      <c r="W29">
+        <v>0.01796876</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>7.096545869021444</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.05385162619662831</v>
+      </c>
+      <c r="C30">
+        <v>19394.50808752093</v>
+      </c>
+      <c r="D30">
+        <v>20803.57240053032</v>
+      </c>
+      <c r="E30">
+        <v>-5756.122519167016</v>
+      </c>
+      <c r="F30">
+        <v>2791.064313009395</v>
+      </c>
+      <c r="G30">
+        <v>1382</v>
+      </c>
+      <c r="H30">
+        <v>1420.9</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1202</v>
+      </c>
+      <c r="K30">
+        <v>799</v>
+      </c>
+      <c r="L30">
+        <v>403</v>
+      </c>
+      <c r="M30">
+        <v>58.89145700449824</v>
+      </c>
+      <c r="N30">
+        <v>344.1085429955018</v>
+      </c>
+      <c r="O30">
+        <v>51.06570778053246</v>
+      </c>
+      <c r="P30">
+        <v>293.0428352149693</v>
+      </c>
+      <c r="Q30">
+        <v>1092.042835214969</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.06780607416198377</v>
+      </c>
+      <c r="T30">
+        <v>1.239535469533554</v>
+      </c>
+      <c r="U30">
+        <v>0.0211</v>
+      </c>
+      <c r="V30">
+        <v>0.1484</v>
+      </c>
+      <c r="W30">
+        <v>0.01796876</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>6.843097802270678</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.05387309109271468</v>
+      </c>
+      <c r="C31">
+        <v>19284.80892096461</v>
+      </c>
+      <c r="D31">
+        <v>20793.55410229577</v>
+      </c>
+      <c r="E31">
+        <v>-5656.441650845252</v>
+      </c>
+      <c r="F31">
+        <v>2890.745181331159</v>
+      </c>
+      <c r="G31">
+        <v>1382</v>
+      </c>
+      <c r="H31">
+        <v>1420.9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1202</v>
+      </c>
+      <c r="K31">
+        <v>799</v>
+      </c>
+      <c r="L31">
+        <v>403</v>
+      </c>
+      <c r="M31">
+        <v>60.99472332608745</v>
+      </c>
+      <c r="N31">
+        <v>342.0052766739125</v>
+      </c>
+      <c r="O31">
+        <v>50.75358305840862</v>
+      </c>
+      <c r="P31">
+        <v>291.2516936155039</v>
+      </c>
+      <c r="Q31">
+        <v>1090.251693615504</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.0685382404122742</v>
+      </c>
+      <c r="T31">
+        <v>1.255047466361742</v>
+      </c>
+      <c r="U31">
+        <v>0.0211</v>
+      </c>
+      <c r="V31">
+        <v>0.1484</v>
+      </c>
+      <c r="W31">
+        <v>0.01796876</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>6.607128912537207</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.05427777598880108</v>
+      </c>
+      <c r="C32">
+        <v>18998.039271658</v>
+      </c>
+      <c r="D32">
+        <v>20606.46532131092</v>
+      </c>
+      <c r="E32">
+        <v>-5556.760782523488</v>
+      </c>
+      <c r="F32">
+        <v>2990.426049652923</v>
+      </c>
+      <c r="G32">
+        <v>1382</v>
+      </c>
+      <c r="H32">
+        <v>1420.9</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1202</v>
+      </c>
+      <c r="K32">
+        <v>799</v>
+      </c>
+      <c r="L32">
+        <v>403</v>
+      </c>
+      <c r="M32">
+        <v>67.58362872215606</v>
+      </c>
+      <c r="N32">
+        <v>335.416371277844</v>
+      </c>
+      <c r="O32">
+        <v>49.77578949763204</v>
+      </c>
+      <c r="P32">
+        <v>285.6405817802119</v>
+      </c>
+      <c r="Q32">
+        <v>1084.640581780212</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.06929132569828726</v>
+      </c>
+      <c r="T32">
+        <v>1.271002663099306</v>
+      </c>
+      <c r="U32">
+        <v>0.0226</v>
+      </c>
+      <c r="V32">
+        <v>0.1484</v>
+      </c>
+      <c r="W32">
+        <v>0.01924616</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>5.962982568704302</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.05431201488488746</v>
+      </c>
+      <c r="C33">
+        <v>18882.68386340177</v>
+      </c>
+      <c r="D33">
+        <v>20590.79078137645</v>
+      </c>
+      <c r="E33">
+        <v>-5457.079914201724</v>
+      </c>
+      <c r="F33">
+        <v>3090.106917974687</v>
+      </c>
+      <c r="G33">
+        <v>1382</v>
+      </c>
+      <c r="H33">
+        <v>1420.9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1202</v>
+      </c>
+      <c r="K33">
+        <v>799</v>
+      </c>
+      <c r="L33">
+        <v>403</v>
+      </c>
+      <c r="M33">
+        <v>69.83641634622794</v>
+      </c>
+      <c r="N33">
+        <v>333.1635836537721</v>
+      </c>
+      <c r="O33">
+        <v>49.44147581421978</v>
+      </c>
+      <c r="P33">
+        <v>283.7221078395523</v>
+      </c>
+      <c r="Q33">
+        <v>1082.722107839552</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07006623954331517</v>
+      </c>
+      <c r="T33">
+        <v>1.287420329307525</v>
+      </c>
+      <c r="U33">
+        <v>0.0226</v>
+      </c>
+      <c r="V33">
+        <v>0.1484</v>
+      </c>
+      <c r="W33">
+        <v>0.01924616</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>5.770628292294486</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.05434625378097385</v>
+      </c>
+      <c r="C34">
+        <v>18767.35228305125</v>
+      </c>
+      <c r="D34">
+        <v>20575.1400693477</v>
+      </c>
+      <c r="E34">
+        <v>-5357.399045879959</v>
+      </c>
+      <c r="F34">
+        <v>3189.787786296451</v>
+      </c>
+      <c r="G34">
+        <v>1382</v>
+      </c>
+      <c r="H34">
+        <v>1420.9</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1202</v>
+      </c>
+      <c r="K34">
+        <v>799</v>
+      </c>
+      <c r="L34">
+        <v>403</v>
+      </c>
+      <c r="M34">
+        <v>72.08920397029981</v>
+      </c>
+      <c r="N34">
+        <v>330.9107960297002</v>
+      </c>
+      <c r="O34">
+        <v>49.10716213080751</v>
+      </c>
+      <c r="P34">
+        <v>281.8036338988927</v>
+      </c>
+      <c r="Q34">
+        <v>1080.803633898893</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07086394497202037</v>
+      </c>
+      <c r="T34">
+        <v>1.304320868051279</v>
+      </c>
+      <c r="U34">
+        <v>0.0226</v>
+      </c>
+      <c r="V34">
+        <v>0.1484</v>
+      </c>
+      <c r="W34">
+        <v>0.01924616</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>5.590296158160283</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.05438049267706023</v>
+      </c>
+      <c r="C35">
+        <v>18652.04447631416</v>
+      </c>
+      <c r="D35">
+        <v>20559.51313093237</v>
+      </c>
+      <c r="E35">
+        <v>-5257.718177558195</v>
+      </c>
+      <c r="F35">
+        <v>3289.468654618216</v>
+      </c>
+      <c r="G35">
+        <v>1382</v>
+      </c>
+      <c r="H35">
+        <v>1420.9</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1202</v>
+      </c>
+      <c r="K35">
+        <v>799</v>
+      </c>
+      <c r="L35">
+        <v>403</v>
+      </c>
+      <c r="M35">
+        <v>74.34199159437168</v>
+      </c>
+      <c r="N35">
+        <v>328.6580084056283</v>
+      </c>
+      <c r="O35">
+        <v>48.77284844739525</v>
+      </c>
+      <c r="P35">
+        <v>279.8851599582331</v>
+      </c>
+      <c r="Q35">
+        <v>1078.885159958233</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07168546250307498</v>
+      </c>
+      <c r="T35">
+        <v>1.321725900488877</v>
+      </c>
+      <c r="U35">
+        <v>0.0226</v>
+      </c>
+      <c r="V35">
+        <v>0.1484</v>
+      </c>
+      <c r="W35">
+        <v>0.01924616</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>5.420893244276638</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.05441473157314661</v>
+      </c>
+      <c r="C36">
+        <v>18536.760389063</v>
+      </c>
+      <c r="D36">
+        <v>20543.90991200298</v>
+      </c>
+      <c r="E36">
+        <v>-5158.037309236431</v>
+      </c>
+      <c r="F36">
+        <v>3389.14952293998</v>
+      </c>
+      <c r="G36">
+        <v>1382</v>
+      </c>
+      <c r="H36">
+        <v>1420.9</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1202</v>
+      </c>
+      <c r="K36">
+        <v>799</v>
+      </c>
+      <c r="L36">
+        <v>403</v>
+      </c>
+      <c r="M36">
+        <v>76.59477921844355</v>
+      </c>
+      <c r="N36">
+        <v>326.4052207815565</v>
+      </c>
+      <c r="O36">
+        <v>48.43853476398298</v>
+      </c>
+      <c r="P36">
+        <v>277.9666860175735</v>
+      </c>
+      <c r="Q36">
+        <v>1076.966686017573</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.0725318745047676</v>
+      </c>
+      <c r="T36">
+        <v>1.339658358151856</v>
+      </c>
+      <c r="U36">
+        <v>0.0226</v>
+      </c>
+      <c r="V36">
+        <v>0.1484</v>
+      </c>
+      <c r="W36">
+        <v>0.01924616</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>5.261455207680266</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.05444897046923301</v>
+      </c>
+      <c r="C37">
+        <v>18421.49996733448</v>
+      </c>
+      <c r="D37">
+        <v>20528.33035859622</v>
+      </c>
+      <c r="E37">
+        <v>-5058.356440914667</v>
+      </c>
+      <c r="F37">
+        <v>3488.830391261744</v>
+      </c>
+      <c r="G37">
+        <v>1382</v>
+      </c>
+      <c r="H37">
+        <v>1420.9</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1202</v>
+      </c>
+      <c r="K37">
+        <v>799</v>
+      </c>
+      <c r="L37">
+        <v>403</v>
+      </c>
+      <c r="M37">
+        <v>78.84756684251542</v>
+      </c>
+      <c r="N37">
+        <v>324.1524331574846</v>
+      </c>
+      <c r="O37">
+        <v>48.10422108057071</v>
+      </c>
+      <c r="P37">
+        <v>276.0482120769138</v>
+      </c>
+      <c r="Q37">
+        <v>1075.048212076914</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07340432995266617</v>
+      </c>
+      <c r="T37">
+        <v>1.358142583742927</v>
+      </c>
+      <c r="U37">
+        <v>0.0226</v>
+      </c>
+      <c r="V37">
+        <v>0.1484</v>
+      </c>
+      <c r="W37">
+        <v>0.01924616</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>5.111127916032258</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.0544832093653194</v>
+      </c>
+      <c r="C38">
+        <v>18306.26315732889</v>
+      </c>
+      <c r="D38">
+        <v>20512.7744169124</v>
+      </c>
+      <c r="E38">
+        <v>-4958.675572592903</v>
+      </c>
+      <c r="F38">
+        <v>3588.511259583508</v>
+      </c>
+      <c r="G38">
+        <v>1382</v>
+      </c>
+      <c r="H38">
+        <v>1420.9</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1202</v>
+      </c>
+      <c r="K38">
+        <v>799</v>
+      </c>
+      <c r="L38">
+        <v>403</v>
+      </c>
+      <c r="M38">
+        <v>81.10035446658728</v>
+      </c>
+      <c r="N38">
+        <v>321.8996455334127</v>
+      </c>
+      <c r="O38">
+        <v>47.76990739715845</v>
+      </c>
+      <c r="P38">
+        <v>274.1297381362542</v>
+      </c>
+      <c r="Q38">
+        <v>1073.129738136254</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.07430404963331155</v>
+      </c>
+      <c r="T38">
+        <v>1.377204441383719</v>
+      </c>
+      <c r="U38">
+        <v>0.0226</v>
+      </c>
+      <c r="V38">
+        <v>0.1484</v>
+      </c>
+      <c r="W38">
+        <v>0.01924616</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>4.969152140586917</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.05451744826140577</v>
+      </c>
+      <c r="C39">
+        <v>18191.04990540946</v>
+      </c>
+      <c r="D39">
+        <v>20497.24203331473</v>
+      </c>
+      <c r="E39">
+        <v>-4858.994704271139</v>
+      </c>
+      <c r="F39">
+        <v>3688.192127905272</v>
+      </c>
+      <c r="G39">
+        <v>1382</v>
+      </c>
+      <c r="H39">
+        <v>1420.9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1202</v>
+      </c>
+      <c r="K39">
+        <v>799</v>
+      </c>
+      <c r="L39">
+        <v>403</v>
+      </c>
+      <c r="M39">
+        <v>83.35314209065915</v>
+      </c>
+      <c r="N39">
+        <v>319.6468579093408</v>
+      </c>
+      <c r="O39">
+        <v>47.43559371374618</v>
+      </c>
+      <c r="P39">
+        <v>272.2112641955947</v>
+      </c>
+      <c r="Q39">
+        <v>1071.211264195595</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.07523233184350123</v>
+      </c>
+      <c r="T39">
+        <v>1.396871437362314</v>
+      </c>
+      <c r="U39">
+        <v>0.0226</v>
+      </c>
+      <c r="V39">
+        <v>0.1484</v>
+      </c>
+      <c r="W39">
+        <v>0.01924616</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>4.834850731381866</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.05455168715749216</v>
+      </c>
+      <c r="C40">
+        <v>18075.86015810173</v>
+      </c>
+      <c r="D40">
+        <v>20481.73315432877</v>
+      </c>
+      <c r="E40">
+        <v>-4759.313835949375</v>
+      </c>
+      <c r="F40">
+        <v>3787.872996227036</v>
+      </c>
+      <c r="G40">
+        <v>1382</v>
+      </c>
+      <c r="H40">
+        <v>1420.9</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1202</v>
+      </c>
+      <c r="K40">
+        <v>799</v>
+      </c>
+      <c r="L40">
+        <v>403</v>
+      </c>
+      <c r="M40">
+        <v>85.60592971473102</v>
+      </c>
+      <c r="N40">
+        <v>317.394070285269</v>
+      </c>
+      <c r="O40">
+        <v>47.10128003033392</v>
+      </c>
+      <c r="P40">
+        <v>270.2927902549351</v>
+      </c>
+      <c r="Q40">
+        <v>1069.292790254935</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.07619055864111639</v>
+      </c>
+      <c r="T40">
+        <v>1.417172852566025</v>
+      </c>
+      <c r="U40">
+        <v>0.0226</v>
+      </c>
+      <c r="V40">
+        <v>0.1484</v>
+      </c>
+      <c r="W40">
+        <v>0.01924616</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>4.707617817398132</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.05458592605357855</v>
+      </c>
+      <c r="C41">
+        <v>17960.69386209299</v>
+      </c>
+      <c r="D41">
+        <v>20466.2477266418</v>
+      </c>
+      <c r="E41">
+        <v>-4659.632967627611</v>
+      </c>
+      <c r="F41">
+        <v>3887.5538645488</v>
+      </c>
+      <c r="G41">
+        <v>1382</v>
+      </c>
+      <c r="H41">
+        <v>1420.9</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1202</v>
+      </c>
+      <c r="K41">
+        <v>799</v>
+      </c>
+      <c r="L41">
+        <v>403</v>
+      </c>
+      <c r="M41">
+        <v>87.85871733880289</v>
+      </c>
+      <c r="N41">
+        <v>315.1412826611971</v>
+      </c>
+      <c r="O41">
+        <v>46.76696634692166</v>
+      </c>
+      <c r="P41">
+        <v>268.3743163142755</v>
+      </c>
+      <c r="Q41">
+        <v>1067.374316314275</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.0771802027107845</v>
+      </c>
+      <c r="T41">
+        <v>1.43813988794035</v>
+      </c>
+      <c r="U41">
+        <v>0.0226</v>
+      </c>
+      <c r="V41">
+        <v>0.1484</v>
+      </c>
+      <c r="W41">
+        <v>0.01924616</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>4.586909668234078</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.08471177702157742</v>
+      </c>
+      <c r="C42">
+        <v>9685.060201801611</v>
+      </c>
+      <c r="D42">
+        <v>12290.29493467217</v>
+      </c>
+      <c r="E42">
+        <v>-4559.952099305847</v>
+      </c>
+      <c r="F42">
+        <v>3987.234732870564</v>
+      </c>
+      <c r="G42">
+        <v>1382</v>
+      </c>
+      <c r="H42">
+        <v>1420.9</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1202</v>
+      </c>
+      <c r="K42">
+        <v>799</v>
+      </c>
+      <c r="L42">
+        <v>403</v>
+      </c>
+      <c r="M42">
+        <v>434.6085858828915</v>
+      </c>
+      <c r="N42">
+        <v>-31.60858588289148</v>
+      </c>
+      <c r="O42">
+        <v>-4.690714145021095</v>
+      </c>
+      <c r="P42">
+        <v>-26.91787173787038</v>
+      </c>
+      <c r="Q42">
+        <v>772.0821282621296</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.07851907309840732</v>
+      </c>
+      <c r="T42">
+        <v>1.466505785983206</v>
+      </c>
+      <c r="U42">
+        <v>0.109</v>
+      </c>
+      <c r="V42">
+        <v>0.1376070375565819</v>
+      </c>
+      <c r="W42">
+        <v>0.09400083290633257</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.9272711425645681</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.08570877702157743</v>
+      </c>
+      <c r="C43">
+        <v>9425.012625262438</v>
+      </c>
+      <c r="D43">
+        <v>12129.92822645477</v>
+      </c>
+      <c r="E43">
+        <v>-4460.271230984083</v>
+      </c>
+      <c r="F43">
+        <v>4086.915601192328</v>
+      </c>
+      <c r="G43">
+        <v>1382</v>
+      </c>
+      <c r="H43">
+        <v>1420.9</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1202</v>
+      </c>
+      <c r="K43">
+        <v>799</v>
+      </c>
+      <c r="L43">
+        <v>403</v>
+      </c>
+      <c r="M43">
+        <v>445.4738005299638</v>
+      </c>
+      <c r="N43">
+        <v>-42.4738005299638</v>
+      </c>
+      <c r="O43">
+        <v>-6.303111998646628</v>
+      </c>
+      <c r="P43">
+        <v>-36.17068853131717</v>
+      </c>
+      <c r="Q43">
+        <v>762.8293114686828</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.07969227772719389</v>
+      </c>
+      <c r="T43">
+        <v>1.491361816254108</v>
+      </c>
+      <c r="U43">
+        <v>0.109</v>
+      </c>
+      <c r="V43">
+        <v>0.1342507683478848</v>
+      </c>
+      <c r="W43">
+        <v>0.09436666625008057</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.9046547732337249</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.08670577702157742</v>
+      </c>
+      <c r="C44">
+        <v>9169.096151445699</v>
+      </c>
+      <c r="D44">
+        <v>11973.69262095979</v>
+      </c>
+      <c r="E44">
+        <v>-4360.590362662319</v>
+      </c>
+      <c r="F44">
+        <v>4186.596469514092</v>
+      </c>
+      <c r="G44">
+        <v>1382</v>
+      </c>
+      <c r="H44">
+        <v>1420.9</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1202</v>
+      </c>
+      <c r="K44">
+        <v>799</v>
+      </c>
+      <c r="L44">
+        <v>403</v>
+      </c>
+      <c r="M44">
+        <v>456.339015177036</v>
+      </c>
+      <c r="N44">
+        <v>-53.339015177036</v>
+      </c>
+      <c r="O44">
+        <v>-7.915509852272143</v>
+      </c>
+      <c r="P44">
+        <v>-45.42350532476386</v>
+      </c>
+      <c r="Q44">
+        <v>753.5764946752362</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08090593768800758</v>
+      </c>
+      <c r="T44">
+        <v>1.51707495101711</v>
+      </c>
+      <c r="U44">
+        <v>0.109</v>
+      </c>
+      <c r="V44">
+        <v>0.131054321482459</v>
+      </c>
+      <c r="W44">
+        <v>0.09471507895841197</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.8831153738710174</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.08770277702157743</v>
+      </c>
+      <c r="C45">
+        <v>8917.153182257129</v>
+      </c>
+      <c r="D45">
+        <v>11821.43052009298</v>
+      </c>
+      <c r="E45">
+        <v>-4260.909494340554</v>
+      </c>
+      <c r="F45">
+        <v>4286.277337835856</v>
+      </c>
+      <c r="G45">
+        <v>1382</v>
+      </c>
+      <c r="H45">
+        <v>1420.9</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1202</v>
+      </c>
+      <c r="K45">
+        <v>799</v>
+      </c>
+      <c r="L45">
+        <v>403</v>
+      </c>
+      <c r="M45">
+        <v>467.2042298241083</v>
+      </c>
+      <c r="N45">
+        <v>-64.20422982410832</v>
+      </c>
+      <c r="O45">
+        <v>-9.527907705897675</v>
+      </c>
+      <c r="P45">
+        <v>-54.67632211821065</v>
+      </c>
+      <c r="Q45">
+        <v>744.3236778817893</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08216218220884981</v>
+      </c>
+      <c r="T45">
+        <v>1.543690301034954</v>
+      </c>
+      <c r="U45">
+        <v>0.109</v>
+      </c>
+      <c r="V45">
+        <v>0.1280065465642622</v>
+      </c>
+      <c r="W45">
+        <v>0.09504728642449542</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.8625778070368075</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.08869977702157743</v>
+      </c>
+      <c r="C46">
+        <v>8669.034035256953</v>
+      </c>
+      <c r="D46">
+        <v>11672.99224141457</v>
+      </c>
+      <c r="E46">
+        <v>-4161.22862601879</v>
+      </c>
+      <c r="F46">
+        <v>4385.95820615762</v>
+      </c>
+      <c r="G46">
+        <v>1382</v>
+      </c>
+      <c r="H46">
+        <v>1420.9</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1202</v>
+      </c>
+      <c r="K46">
+        <v>799</v>
+      </c>
+      <c r="L46">
+        <v>403</v>
+      </c>
+      <c r="M46">
+        <v>478.0694444711806</v>
+      </c>
+      <c r="N46">
+        <v>-75.06944447118059</v>
+      </c>
+      <c r="O46">
+        <v>-11.1403055595232</v>
+      </c>
+      <c r="P46">
+        <v>-63.92913891165739</v>
+      </c>
+      <c r="Q46">
+        <v>735.0708610883426</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.08346329260543642</v>
+      </c>
+      <c r="T46">
+        <v>1.571256199267721</v>
+      </c>
+      <c r="U46">
+        <v>0.109</v>
+      </c>
+      <c r="V46">
+        <v>0.1250973068696199</v>
+      </c>
+      <c r="W46">
+        <v>0.09536439355121143</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.8429737659677893</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.08969677702157743</v>
+      </c>
+      <c r="C47">
+        <v>8424.59645284991</v>
+      </c>
+      <c r="D47">
+        <v>11528.23552732929</v>
+      </c>
+      <c r="E47">
+        <v>-4061.547757697026</v>
+      </c>
+      <c r="F47">
+        <v>4485.639074479384</v>
+      </c>
+      <c r="G47">
+        <v>1382</v>
+      </c>
+      <c r="H47">
+        <v>1420.9</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1202</v>
+      </c>
+      <c r="K47">
+        <v>799</v>
+      </c>
+      <c r="L47">
+        <v>403</v>
+      </c>
+      <c r="M47">
+        <v>488.9346591182529</v>
+      </c>
+      <c r="N47">
+        <v>-85.93465911825291</v>
+      </c>
+      <c r="O47">
+        <v>-12.75270341314873</v>
+      </c>
+      <c r="P47">
+        <v>-73.18195570510417</v>
+      </c>
+      <c r="Q47">
+        <v>725.8180442948958</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.08481171610735344</v>
+      </c>
+      <c r="T47">
+        <v>1.599824493799861</v>
+      </c>
+      <c r="U47">
+        <v>0.109</v>
+      </c>
+      <c r="V47">
+        <v>0.1223173667169617</v>
+      </c>
+      <c r="W47">
+        <v>0.09566740702785118</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.8242410156129494</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.09069377702157742</v>
+      </c>
+      <c r="C48">
+        <v>8183.705147547193</v>
+      </c>
+      <c r="D48">
+        <v>11387.02509034834</v>
+      </c>
+      <c r="E48">
+        <v>-3961.866889375262</v>
+      </c>
+      <c r="F48">
+        <v>4585.319942801148</v>
+      </c>
+      <c r="G48">
+        <v>1382</v>
+      </c>
+      <c r="H48">
+        <v>1420.9</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1202</v>
+      </c>
+      <c r="K48">
+        <v>799</v>
+      </c>
+      <c r="L48">
+        <v>403</v>
+      </c>
+      <c r="M48">
+        <v>499.7998737653252</v>
+      </c>
+      <c r="N48">
+        <v>-96.79987376532517</v>
+      </c>
+      <c r="O48">
+        <v>-14.36510126677426</v>
+      </c>
+      <c r="P48">
+        <v>-82.43477249855091</v>
+      </c>
+      <c r="Q48">
+        <v>716.565227501449</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.08621008122045258</v>
+      </c>
+      <c r="T48">
+        <v>1.629450873314673</v>
+      </c>
+      <c r="U48">
+        <v>0.109</v>
+      </c>
+      <c r="V48">
+        <v>0.1196582935274625</v>
+      </c>
+      <c r="W48">
+        <v>0.09595724600550658</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.8063227326648419</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1068931361921306</v>
+      </c>
+      <c r="C49">
+        <v>6193.906628333425</v>
+      </c>
+      <c r="D49">
+        <v>9496.907439456338</v>
+      </c>
+      <c r="E49">
+        <v>-3862.186021053498</v>
+      </c>
+      <c r="F49">
+        <v>4685.000811122913</v>
+      </c>
+      <c r="G49">
+        <v>1382</v>
+      </c>
+      <c r="H49">
+        <v>1420.9</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1202</v>
+      </c>
+      <c r="K49">
+        <v>799</v>
+      </c>
+      <c r="L49">
+        <v>403</v>
+      </c>
+      <c r="M49">
+        <v>656.8371137194323</v>
+      </c>
+      <c r="N49">
+        <v>-253.8371137194323</v>
+      </c>
+      <c r="O49">
+        <v>-37.66942767596375</v>
+      </c>
+      <c r="P49">
+        <v>-216.1676860434685</v>
+      </c>
+      <c r="Q49">
+        <v>582.8323139565315</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.08867698684829727</v>
+      </c>
+      <c r="T49">
+        <v>1.681715823057145</v>
+      </c>
+      <c r="U49">
+        <v>0.1402</v>
+      </c>
+      <c r="V49">
+        <v>0.09105027525217731</v>
+      </c>
+      <c r="W49">
+        <v>0.1274347514096447</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.6135463291925695</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1082021361921306</v>
+      </c>
+      <c r="C50">
+        <v>5968.531287507058</v>
+      </c>
+      <c r="D50">
+        <v>9371.212966951734</v>
+      </c>
+      <c r="E50">
+        <v>-3762.505152731734</v>
+      </c>
+      <c r="F50">
+        <v>4784.681679444677</v>
+      </c>
+      <c r="G50">
+        <v>1382</v>
+      </c>
+      <c r="H50">
+        <v>1420.9</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1202</v>
+      </c>
+      <c r="K50">
+        <v>799</v>
+      </c>
+      <c r="L50">
+        <v>403</v>
+      </c>
+      <c r="M50">
+        <v>670.8123714581436</v>
+      </c>
+      <c r="N50">
+        <v>-267.8123714581436</v>
+      </c>
+      <c r="O50">
+        <v>-39.74335592438852</v>
+      </c>
+      <c r="P50">
+        <v>-228.0690155337551</v>
+      </c>
+      <c r="Q50">
+        <v>570.9309844662449</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.09020346736461066</v>
+      </c>
+      <c r="T50">
+        <v>1.71405651196209</v>
+      </c>
+      <c r="U50">
+        <v>0.1402</v>
+      </c>
+      <c r="V50">
+        <v>0.08915339451775696</v>
+      </c>
+      <c r="W50">
+        <v>0.1277006940886105</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.6007641140010576</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1095111361921306</v>
+      </c>
+      <c r="C51">
+        <v>5746.439694790142</v>
+      </c>
+      <c r="D51">
+        <v>9248.802242556583</v>
+      </c>
+      <c r="E51">
+        <v>-3662.82428440997</v>
+      </c>
+      <c r="F51">
+        <v>4884.362547766441</v>
+      </c>
+      <c r="G51">
+        <v>1382</v>
+      </c>
+      <c r="H51">
+        <v>1420.9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1202</v>
+      </c>
+      <c r="K51">
+        <v>799</v>
+      </c>
+      <c r="L51">
+        <v>403</v>
+      </c>
+      <c r="M51">
+        <v>684.7876291968549</v>
+      </c>
+      <c r="N51">
+        <v>-281.7876291968549</v>
+      </c>
+      <c r="O51">
+        <v>-41.81728417281327</v>
+      </c>
+      <c r="P51">
+        <v>-239.9703450240416</v>
+      </c>
+      <c r="Q51">
+        <v>559.0296549759584</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.09178980986195598</v>
+      </c>
+      <c r="T51">
+        <v>1.747665463177033</v>
+      </c>
+      <c r="U51">
+        <v>0.1402</v>
+      </c>
+      <c r="V51">
+        <v>0.08733393748678232</v>
+      </c>
+      <c r="W51">
+        <v>0.1279557819643531</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.5885036218785871</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1108201361921306</v>
+      </c>
+      <c r="C52">
+        <v>5527.504828300032</v>
+      </c>
+      <c r="D52">
+        <v>9129.548244388237</v>
+      </c>
+      <c r="E52">
+        <v>-3563.143416088205</v>
+      </c>
+      <c r="F52">
+        <v>4984.043416088205</v>
+      </c>
+      <c r="G52">
+        <v>1382</v>
+      </c>
+      <c r="H52">
+        <v>1420.9</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1202</v>
+      </c>
+      <c r="K52">
+        <v>799</v>
+      </c>
+      <c r="L52">
+        <v>403</v>
+      </c>
+      <c r="M52">
+        <v>698.7628869355663</v>
+      </c>
+      <c r="N52">
+        <v>-295.7628869355663</v>
+      </c>
+      <c r="O52">
+        <v>-43.89121242123803</v>
+      </c>
+      <c r="P52">
+        <v>-251.8716745143282</v>
+      </c>
+      <c r="Q52">
+        <v>547.1283254856718</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.09343960605919509</v>
+      </c>
+      <c r="T52">
+        <v>1.782618772440574</v>
+      </c>
+      <c r="U52">
+        <v>0.1402</v>
+      </c>
+      <c r="V52">
+        <v>0.08558725873704667</v>
+      </c>
+      <c r="W52">
+        <v>0.128200666325066</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.5767335494410153</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1121291361921306</v>
+      </c>
+      <c r="C53">
+        <v>5311.606134034702</v>
+      </c>
+      <c r="D53">
+        <v>9013.330418444672</v>
+      </c>
+      <c r="E53">
+        <v>-3463.462547766441</v>
+      </c>
+      <c r="F53">
+        <v>5083.724284409969</v>
+      </c>
+      <c r="G53">
+        <v>1382</v>
+      </c>
+      <c r="H53">
+        <v>1420.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1202</v>
+      </c>
+      <c r="K53">
+        <v>799</v>
+      </c>
+      <c r="L53">
+        <v>403</v>
+      </c>
+      <c r="M53">
+        <v>712.7381446742777</v>
+      </c>
+      <c r="N53">
+        <v>-309.7381446742777</v>
+      </c>
+      <c r="O53">
+        <v>-45.96514066966281</v>
+      </c>
+      <c r="P53">
+        <v>-263.7730040046149</v>
+      </c>
+      <c r="Q53">
+        <v>535.2269959953851</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.09515674087672969</v>
+      </c>
+      <c r="T53">
+        <v>1.818998747388341</v>
+      </c>
+      <c r="U53">
+        <v>0.1402</v>
+      </c>
+      <c r="V53">
+        <v>0.08390907719318301</v>
+      </c>
+      <c r="W53">
+        <v>0.1284359473775157</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.5654250484715835</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1134381361921306</v>
+      </c>
+      <c r="C54">
+        <v>5098.629119371541</v>
+      </c>
+      <c r="D54">
+        <v>8900.034272103274</v>
+      </c>
+      <c r="E54">
+        <v>-3363.781679444677</v>
+      </c>
+      <c r="F54">
+        <v>5183.405152731733</v>
+      </c>
+      <c r="G54">
+        <v>1382</v>
+      </c>
+      <c r="H54">
+        <v>1420.9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1202</v>
+      </c>
+      <c r="K54">
+        <v>799</v>
+      </c>
+      <c r="L54">
+        <v>403</v>
+      </c>
+      <c r="M54">
+        <v>726.713402412989</v>
+      </c>
+      <c r="N54">
+        <v>-323.713402412989</v>
+      </c>
+      <c r="O54">
+        <v>-48.03906891808757</v>
+      </c>
+      <c r="P54">
+        <v>-275.6743334949014</v>
+      </c>
+      <c r="Q54">
+        <v>523.3256665050985</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.09694542297832823</v>
+      </c>
+      <c r="T54">
+        <v>1.856894554625598</v>
+      </c>
+      <c r="U54">
+        <v>0.1402</v>
+      </c>
+      <c r="V54">
+        <v>0.08229544109331409</v>
+      </c>
+      <c r="W54">
+        <v>0.1286621791587174</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.55455148984713</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1147471361921306</v>
+      </c>
+      <c r="C55">
+        <v>4888.464976843487</v>
+      </c>
+      <c r="D55">
+        <v>8789.550997896984</v>
+      </c>
+      <c r="E55">
+        <v>-3264.100811122913</v>
+      </c>
+      <c r="F55">
+        <v>5283.086021053497</v>
+      </c>
+      <c r="G55">
+        <v>1382</v>
+      </c>
+      <c r="H55">
+        <v>1420.9</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1202</v>
+      </c>
+      <c r="K55">
+        <v>799</v>
+      </c>
+      <c r="L55">
+        <v>403</v>
+      </c>
+      <c r="M55">
+        <v>740.6886601517003</v>
+      </c>
+      <c r="N55">
+        <v>-337.6886601517003</v>
+      </c>
+      <c r="O55">
+        <v>-50.11299716651233</v>
+      </c>
+      <c r="P55">
+        <v>-287.575662985188</v>
+      </c>
+      <c r="Q55">
+        <v>511.424337014812</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.09881021921190969</v>
+      </c>
+      <c r="T55">
+        <v>1.896402949404866</v>
+      </c>
+      <c r="U55">
+        <v>0.1402</v>
+      </c>
+      <c r="V55">
+        <v>0.08074269692174213</v>
+      </c>
+      <c r="W55">
+        <v>0.1288798738915717</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.544088254189637</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1160561361921306</v>
+      </c>
+      <c r="C56">
+        <v>4681.010235593796</v>
+      </c>
+      <c r="D56">
+        <v>8681.777124969058</v>
+      </c>
+      <c r="E56">
+        <v>-3164.419942801149</v>
+      </c>
+      <c r="F56">
+        <v>5382.766889375262</v>
+      </c>
+      <c r="G56">
+        <v>1382</v>
+      </c>
+      <c r="H56">
+        <v>1420.9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1202</v>
+      </c>
+      <c r="K56">
+        <v>799</v>
+      </c>
+      <c r="L56">
+        <v>403</v>
+      </c>
+      <c r="M56">
+        <v>754.6639178904117</v>
+      </c>
+      <c r="N56">
+        <v>-351.6639178904117</v>
+      </c>
+      <c r="O56">
+        <v>-52.18692541493709</v>
+      </c>
+      <c r="P56">
+        <v>-299.4769924754746</v>
+      </c>
+      <c r="Q56">
+        <v>499.5230075245254</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1007560935426034</v>
+      </c>
+      <c r="T56">
+        <v>1.937629100478885</v>
+      </c>
+      <c r="U56">
+        <v>0.1402</v>
+      </c>
+      <c r="V56">
+        <v>0.07924746179356172</v>
+      </c>
+      <c r="W56">
+        <v>0.1290895058565426</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.5340125457787178</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1173651361921306</v>
+      </c>
+      <c r="C57">
+        <v>4476.166438162503</v>
+      </c>
+      <c r="D57">
+        <v>8576.614195859529</v>
+      </c>
+      <c r="E57">
+        <v>-3064.739074479385</v>
+      </c>
+      <c r="F57">
+        <v>5482.447757697026</v>
+      </c>
+      <c r="G57">
+        <v>1382</v>
+      </c>
+      <c r="H57">
+        <v>1420.9</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1202</v>
+      </c>
+      <c r="K57">
+        <v>799</v>
+      </c>
+      <c r="L57">
+        <v>403</v>
+      </c>
+      <c r="M57">
+        <v>768.639175629123</v>
+      </c>
+      <c r="N57">
+        <v>-365.639175629123</v>
+      </c>
+      <c r="O57">
+        <v>-54.26085366336185</v>
+      </c>
+      <c r="P57">
+        <v>-311.3783219657611</v>
+      </c>
+      <c r="Q57">
+        <v>487.6216780342389</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1027884511768835</v>
+      </c>
+      <c r="T57">
+        <v>1.980687524933971</v>
+      </c>
+      <c r="U57">
+        <v>0.1402</v>
+      </c>
+      <c r="V57">
+        <v>0.0778065988518606</v>
+      </c>
+      <c r="W57">
+        <v>0.1292915148409691</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.5243032267645593</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1186741361921306</v>
+      </c>
+      <c r="C58">
+        <v>4273.839840482395</v>
+      </c>
+      <c r="D58">
+        <v>8473.968466501185</v>
+      </c>
+      <c r="E58">
+        <v>-2965.058206157621</v>
+      </c>
+      <c r="F58">
+        <v>5582.12862601879</v>
+      </c>
+      <c r="G58">
+        <v>1382</v>
+      </c>
+      <c r="H58">
+        <v>1420.9</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1202</v>
+      </c>
+      <c r="K58">
+        <v>799</v>
+      </c>
+      <c r="L58">
+        <v>403</v>
+      </c>
+      <c r="M58">
+        <v>782.6144333678343</v>
+      </c>
+      <c r="N58">
+        <v>-379.6144333678343</v>
+      </c>
+      <c r="O58">
+        <v>-56.33478191178661</v>
+      </c>
+      <c r="P58">
+        <v>-323.2796514560477</v>
+      </c>
+      <c r="Q58">
+        <v>475.7203485439523</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1049131887036308</v>
+      </c>
+      <c r="T58">
+        <v>2.025703150500652</v>
+      </c>
+      <c r="U58">
+        <v>0.1402</v>
+      </c>
+      <c r="V58">
+        <v>0.07641719530093452</v>
+      </c>
+      <c r="W58">
+        <v>0.129486309218809</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.5149406691437637</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1199831361921306</v>
+      </c>
+      <c r="C59">
+        <v>4073.941133163051</v>
+      </c>
+      <c r="D59">
+        <v>8373.750627503605</v>
+      </c>
+      <c r="E59">
+        <v>-2865.377337835856</v>
+      </c>
+      <c r="F59">
+        <v>5681.809494340554</v>
+      </c>
+      <c r="G59">
+        <v>1382</v>
+      </c>
+      <c r="H59">
+        <v>1420.9</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1202</v>
+      </c>
+      <c r="K59">
+        <v>799</v>
+      </c>
+      <c r="L59">
+        <v>403</v>
+      </c>
+      <c r="M59">
+        <v>796.5896911065456</v>
+      </c>
+      <c r="N59">
+        <v>-393.5896911065456</v>
+      </c>
+      <c r="O59">
+        <v>-58.40871016021137</v>
+      </c>
+      <c r="P59">
+        <v>-335.1809809463342</v>
+      </c>
+      <c r="Q59">
+        <v>463.8190190536658</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1071367512316222</v>
+      </c>
+      <c r="T59">
+        <v>2.072812526093691</v>
+      </c>
+      <c r="U59">
+        <v>0.1402</v>
+      </c>
+      <c r="V59">
+        <v>0.07507654275179532</v>
+      </c>
+      <c r="W59">
+        <v>0.1296742687061983</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.50590662231668</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1469675094329178</v>
+      </c>
+      <c r="C60">
+        <v>2332.911385293648</v>
+      </c>
+      <c r="D60">
+        <v>6732.401747955965</v>
+      </c>
+      <c r="E60">
+        <v>-2765.696469514093</v>
+      </c>
+      <c r="F60">
+        <v>5781.490362662317</v>
+      </c>
+      <c r="G60">
+        <v>1382</v>
+      </c>
+      <c r="H60">
+        <v>1420.9</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1202</v>
+      </c>
+      <c r="K60">
+        <v>799</v>
+      </c>
+      <c r="L60">
+        <v>403</v>
+      </c>
+      <c r="M60">
+        <v>1062.059779621068</v>
+      </c>
+      <c r="N60">
+        <v>-659.0597796210677</v>
+      </c>
+      <c r="O60">
+        <v>-97.80447129576645</v>
+      </c>
+      <c r="P60">
+        <v>-561.2553083253013</v>
+      </c>
+      <c r="Q60">
+        <v>237.7446916746987</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1105266101675829</v>
+      </c>
+      <c r="T60">
+        <v>2.144631571347095</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.05631057794255037</v>
+      </c>
+      <c r="W60">
+        <v>0.1733557468319535</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.379451333844679</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1487115094329179</v>
+      </c>
+      <c r="C61">
+        <v>2149.010005364232</v>
+      </c>
+      <c r="D61">
+        <v>6648.181236348313</v>
+      </c>
+      <c r="E61">
+        <v>-2666.015601192329</v>
+      </c>
+      <c r="F61">
+        <v>5881.171230984081</v>
+      </c>
+      <c r="G61">
+        <v>1382</v>
+      </c>
+      <c r="H61">
+        <v>1420.9</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1202</v>
+      </c>
+      <c r="K61">
+        <v>799</v>
+      </c>
+      <c r="L61">
+        <v>403</v>
+      </c>
+      <c r="M61">
+        <v>1080.371155131776</v>
+      </c>
+      <c r="N61">
+        <v>-677.3711551317758</v>
+      </c>
+      <c r="O61">
+        <v>-100.5218794215555</v>
+      </c>
+      <c r="P61">
+        <v>-576.8492757102202</v>
+      </c>
+      <c r="Q61">
+        <v>222.1507242897798</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1129955518789874</v>
+      </c>
+      <c r="T61">
+        <v>2.196939658453122</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.0553561613672529</v>
+      </c>
+      <c r="W61">
+        <v>0.1735310731568357</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.3730199553049387</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1504555094329179</v>
+      </c>
+      <c r="C62">
+        <v>1967.189742535153</v>
+      </c>
+      <c r="D62">
+        <v>6566.041841840998</v>
+      </c>
+      <c r="E62">
+        <v>-2566.334732870565</v>
+      </c>
+      <c r="F62">
+        <v>5980.852099305846</v>
+      </c>
+      <c r="G62">
+        <v>1382</v>
+      </c>
+      <c r="H62">
+        <v>1420.9</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1202</v>
+      </c>
+      <c r="K62">
+        <v>799</v>
+      </c>
+      <c r="L62">
+        <v>403</v>
+      </c>
+      <c r="M62">
+        <v>1098.682530642484</v>
+      </c>
+      <c r="N62">
+        <v>-695.6825306424839</v>
+      </c>
+      <c r="O62">
+        <v>-103.2392875473446</v>
+      </c>
+      <c r="P62">
+        <v>-592.4432430951393</v>
+      </c>
+      <c r="Q62">
+        <v>206.5567569048607</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.115587940675962</v>
+      </c>
+      <c r="T62">
+        <v>2.25186314991445</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.05443355867779869</v>
+      </c>
+      <c r="W62">
+        <v>0.1737005552708884</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.3668029560498564</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1521995094329179</v>
+      </c>
+      <c r="C63">
+        <v>1787.374400570942</v>
+      </c>
+      <c r="D63">
+        <v>6485.907368198552</v>
+      </c>
+      <c r="E63">
+        <v>-2466.653864548801</v>
+      </c>
+      <c r="F63">
+        <v>6080.53296762761</v>
+      </c>
+      <c r="G63">
+        <v>1382</v>
+      </c>
+      <c r="H63">
+        <v>1420.9</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1202</v>
+      </c>
+      <c r="K63">
+        <v>799</v>
+      </c>
+      <c r="L63">
+        <v>403</v>
+      </c>
+      <c r="M63">
+        <v>1116.993906153192</v>
+      </c>
+      <c r="N63">
+        <v>-713.9939061531918</v>
+      </c>
+      <c r="O63">
+        <v>-105.9566956731337</v>
+      </c>
+      <c r="P63">
+        <v>-608.0372104800581</v>
+      </c>
+      <c r="Q63">
+        <v>190.9627895199419</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1183132724881662</v>
+      </c>
+      <c r="T63">
+        <v>2.309603230681487</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.05354120525685117</v>
+      </c>
+      <c r="W63">
+        <v>0.1738644805943164</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.3607897928359244</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1539435094329178</v>
+      </c>
+      <c r="C64">
+        <v>1609.491458098148</v>
+      </c>
+      <c r="D64">
+        <v>6407.705294047521</v>
+      </c>
+      <c r="E64">
+        <v>-2366.972996227037</v>
+      </c>
+      <c r="F64">
+        <v>6180.213835949374</v>
+      </c>
+      <c r="G64">
+        <v>1382</v>
+      </c>
+      <c r="H64">
+        <v>1420.9</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1202</v>
+      </c>
+      <c r="K64">
+        <v>799</v>
+      </c>
+      <c r="L64">
+        <v>403</v>
+      </c>
+      <c r="M64">
+        <v>1135.3052816639</v>
+      </c>
+      <c r="N64">
+        <v>-732.3052816638999</v>
+      </c>
+      <c r="O64">
+        <v>-108.6741037989227</v>
+      </c>
+      <c r="P64">
+        <v>-623.6311778649772</v>
+      </c>
+      <c r="Q64">
+        <v>175.3688221350228</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1211820428168021</v>
+      </c>
+      <c r="T64">
+        <v>2.370382263067842</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.05267763743012777</v>
+      </c>
+      <c r="W64">
+        <v>0.1740231180040855</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.3549706026288934</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1556875094329178</v>
+      </c>
+      <c r="C65">
+        <v>1433.471849701433</v>
+      </c>
+      <c r="D65">
+        <v>6331.366553972572</v>
+      </c>
+      <c r="E65">
+        <v>-2267.292127905272</v>
+      </c>
+      <c r="F65">
+        <v>6279.894704271139</v>
+      </c>
+      <c r="G65">
+        <v>1382</v>
+      </c>
+      <c r="H65">
+        <v>1420.9</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1202</v>
+      </c>
+      <c r="K65">
+        <v>799</v>
+      </c>
+      <c r="L65">
+        <v>403</v>
+      </c>
+      <c r="M65">
+        <v>1153.616657174608</v>
+      </c>
+      <c r="N65">
+        <v>-750.6166571746082</v>
+      </c>
+      <c r="O65">
+        <v>-111.3915119247119</v>
+      </c>
+      <c r="P65">
+        <v>-639.2251452498964</v>
+      </c>
+      <c r="Q65">
+        <v>159.7748547501036</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1242058818118508</v>
+      </c>
+      <c r="T65">
+        <v>2.434446648556162</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.05184148445504636</v>
+      </c>
+      <c r="W65">
+        <v>0.174176719305608</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.3493361486189108</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1574315094329178</v>
+      </c>
+      <c r="C66">
+        <v>1259.249762483034</v>
+      </c>
+      <c r="D66">
+        <v>6256.825335075937</v>
+      </c>
+      <c r="E66">
+        <v>-2167.611259583507</v>
+      </c>
+      <c r="F66">
+        <v>6379.575572592903</v>
+      </c>
+      <c r="G66">
+        <v>1382</v>
+      </c>
+      <c r="H66">
+        <v>1420.9</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1202</v>
+      </c>
+      <c r="K66">
+        <v>799</v>
+      </c>
+      <c r="L66">
+        <v>403</v>
+      </c>
+      <c r="M66">
+        <v>1171.928032685316</v>
+      </c>
+      <c r="N66">
+        <v>-768.9280326853163</v>
+      </c>
+      <c r="O66">
+        <v>-114.1089200505009</v>
+      </c>
+      <c r="P66">
+        <v>-654.8191126348154</v>
+      </c>
+      <c r="Q66">
+        <v>144.1808873651846</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.12739771186218</v>
+      </c>
+      <c r="T66">
+        <v>2.502070166571611</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.05103146126043626</v>
+      </c>
+      <c r="W66">
+        <v>0.1743255205664579</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.3438777712967402</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1591755094329179</v>
+      </c>
+      <c r="C67">
+        <v>1086.762446826012</v>
+      </c>
+      <c r="D67">
+        <v>6184.018887740679</v>
+      </c>
+      <c r="E67">
+        <v>-2067.930391261743</v>
+      </c>
+      <c r="F67">
+        <v>6479.256440914667</v>
+      </c>
+      <c r="G67">
+        <v>1382</v>
+      </c>
+      <c r="H67">
+        <v>1420.9</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1202</v>
+      </c>
+      <c r="K67">
+        <v>799</v>
+      </c>
+      <c r="L67">
+        <v>403</v>
+      </c>
+      <c r="M67">
+        <v>1190.239408196024</v>
+      </c>
+      <c r="N67">
+        <v>-787.2394081960244</v>
+      </c>
+      <c r="O67">
+        <v>-116.82632817629</v>
+      </c>
+      <c r="P67">
+        <v>-670.4130800197344</v>
+      </c>
+      <c r="Q67">
+        <v>128.5869199802656</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1307719322010995</v>
+      </c>
+      <c r="T67">
+        <v>2.573557885616515</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.05024636185642955</v>
+      </c>
+      <c r="W67">
+        <v>0.1744697433269739</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.3385873440460212</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1609195094329179</v>
+      </c>
+      <c r="C68">
+        <v>915.9500402176709</v>
+      </c>
+      <c r="D68">
+        <v>6112.887349454102</v>
+      </c>
+      <c r="E68">
+        <v>-1968.249522939979</v>
+      </c>
+      <c r="F68">
+        <v>6578.937309236431</v>
+      </c>
+      <c r="G68">
+        <v>1382</v>
+      </c>
+      <c r="H68">
+        <v>1420.9</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1202</v>
+      </c>
+      <c r="K68">
+        <v>799</v>
+      </c>
+      <c r="L68">
+        <v>403</v>
+      </c>
+      <c r="M68">
+        <v>1208.550783706733</v>
+      </c>
+      <c r="N68">
+        <v>-805.5507837067325</v>
+      </c>
+      <c r="O68">
+        <v>-119.5437363020791</v>
+      </c>
+      <c r="P68">
+        <v>-686.0070474046535</v>
+      </c>
+      <c r="Q68">
+        <v>112.9929525953465</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1343446360893671</v>
+      </c>
+      <c r="T68">
+        <v>2.649250764605235</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.04948505334345334</v>
+      </c>
+      <c r="W68">
+        <v>0.1746095957008076</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.3334572327725966</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1626635094329179</v>
+      </c>
+      <c r="C69">
+        <v>746.7554030934853</v>
+      </c>
+      <c r="D69">
+        <v>6043.373580651681</v>
+      </c>
+      <c r="E69">
+        <v>-1868.568654618215</v>
+      </c>
+      <c r="F69">
+        <v>6678.618177558195</v>
+      </c>
+      <c r="G69">
+        <v>1382</v>
+      </c>
+      <c r="H69">
+        <v>1420.9</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1202</v>
+      </c>
+      <c r="K69">
+        <v>799</v>
+      </c>
+      <c r="L69">
+        <v>403</v>
+      </c>
+      <c r="M69">
+        <v>1226.86215921744</v>
+      </c>
+      <c r="N69">
+        <v>-823.8621592174404</v>
+      </c>
+      <c r="O69">
+        <v>-122.2611444278682</v>
+      </c>
+      <c r="P69">
+        <v>-701.6010147895722</v>
+      </c>
+      <c r="Q69">
+        <v>97.39898521042778</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1381338674860146</v>
+      </c>
+      <c r="T69">
+        <v>2.729531090805394</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.04874647045773017</v>
+      </c>
+      <c r="W69">
+        <v>0.174745273376915</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.328480259149125</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1644075094329178</v>
+      </c>
+      <c r="C70">
+        <v>579.1239657554943</v>
+      </c>
+      <c r="D70">
+        <v>5975.423011635454</v>
+      </c>
+      <c r="E70">
+        <v>-1768.887786296451</v>
+      </c>
+      <c r="F70">
+        <v>6778.29904587996</v>
+      </c>
+      <c r="G70">
+        <v>1382</v>
+      </c>
+      <c r="H70">
+        <v>1420.9</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1202</v>
+      </c>
+      <c r="K70">
+        <v>799</v>
+      </c>
+      <c r="L70">
+        <v>403</v>
+      </c>
+      <c r="M70">
+        <v>1245.173534728149</v>
+      </c>
+      <c r="N70">
+        <v>-842.1735347281485</v>
+      </c>
+      <c r="O70">
+        <v>-124.9785525536572</v>
+      </c>
+      <c r="P70">
+        <v>-717.1949821744913</v>
+      </c>
+      <c r="Q70">
+        <v>81.80501782550868</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1421599258449525</v>
+      </c>
+      <c r="T70">
+        <v>2.814828937393063</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.04802961059805766</v>
+      </c>
+      <c r="W70">
+        <v>0.1748769605331368</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.3236496671028144</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1661515094329179</v>
+      </c>
+      <c r="C71">
+        <v>413.0035855031847</v>
+      </c>
+      <c r="D71">
+        <v>5908.983499704908</v>
+      </c>
+      <c r="E71">
+        <v>-1669.206917974687</v>
+      </c>
+      <c r="F71">
+        <v>6877.979914201724</v>
+      </c>
+      <c r="G71">
+        <v>1382</v>
+      </c>
+      <c r="H71">
+        <v>1420.9</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1202</v>
+      </c>
+      <c r="K71">
+        <v>799</v>
+      </c>
+      <c r="L71">
+        <v>403</v>
+      </c>
+      <c r="M71">
+        <v>1263.484910238857</v>
+      </c>
+      <c r="N71">
+        <v>-860.4849102388566</v>
+      </c>
+      <c r="O71">
+        <v>-127.6959606794463</v>
+      </c>
+      <c r="P71">
+        <v>-732.7889495594103</v>
+      </c>
+      <c r="Q71">
+        <v>66.2110504405897</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1464457299044672</v>
+      </c>
+      <c r="T71">
+        <v>2.905629870857356</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.04733352928504233</v>
+      </c>
+      <c r="W71">
+        <v>0.1750048306703377</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.3189590922172664</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1678955094329179</v>
+      </c>
+      <c r="C72">
+        <v>248.3444131907636</v>
+      </c>
+      <c r="D72">
+        <v>5844.005195714251</v>
+      </c>
+      <c r="E72">
+        <v>-1569.526049652923</v>
+      </c>
+      <c r="F72">
+        <v>6977.660782523488</v>
+      </c>
+      <c r="G72">
+        <v>1382</v>
+      </c>
+      <c r="H72">
+        <v>1420.9</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1202</v>
+      </c>
+      <c r="K72">
+        <v>799</v>
+      </c>
+      <c r="L72">
+        <v>403</v>
+      </c>
+      <c r="M72">
+        <v>1281.796285749565</v>
+      </c>
+      <c r="N72">
+        <v>-878.7962857495647</v>
+      </c>
+      <c r="O72">
+        <v>-130.4133688052354</v>
+      </c>
+      <c r="P72">
+        <v>-748.3829169443293</v>
+      </c>
+      <c r="Q72">
+        <v>50.61708305567072</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1510172542346161</v>
+      </c>
+      <c r="T72">
+        <v>3.002484199885934</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.04665733600954173</v>
+      </c>
+      <c r="W72">
+        <v>0.1751290473750472</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.3144025337570197</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1696395094329178</v>
+      </c>
+      <c r="C73">
+        <v>85.09876849309603</v>
+      </c>
+      <c r="D73">
+        <v>5780.440419338347</v>
+      </c>
+      <c r="E73">
+        <v>-1469.845181331159</v>
+      </c>
+      <c r="F73">
+        <v>7077.341650845251</v>
+      </c>
+      <c r="G73">
+        <v>1382</v>
+      </c>
+      <c r="H73">
+        <v>1420.9</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1202</v>
+      </c>
+      <c r="K73">
+        <v>799</v>
+      </c>
+      <c r="L73">
+        <v>403</v>
+      </c>
+      <c r="M73">
+        <v>1300.107661260273</v>
+      </c>
+      <c r="N73">
+        <v>-897.1076612602726</v>
+      </c>
+      <c r="O73">
+        <v>-133.1307769310245</v>
+      </c>
+      <c r="P73">
+        <v>-763.9768843292482</v>
+      </c>
+      <c r="Q73">
+        <v>35.02311567075185</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1559040561047752</v>
+      </c>
+      <c r="T73">
+        <v>3.106018137813034</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.04600019043194255</v>
+      </c>
+      <c r="W73">
+        <v>0.1752497650176522</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.3099743290562167</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1713835094329179</v>
+      </c>
+      <c r="C74">
+        <v>-76.77897677560122</v>
+      </c>
+      <c r="D74">
+        <v>5718.243542391414</v>
+      </c>
+      <c r="E74">
+        <v>-1370.164313009395</v>
+      </c>
+      <c r="F74">
+        <v>7177.022519167015</v>
+      </c>
+      <c r="G74">
+        <v>1382</v>
+      </c>
+      <c r="H74">
+        <v>1420.9</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1202</v>
+      </c>
+      <c r="K74">
+        <v>799</v>
+      </c>
+      <c r="L74">
+        <v>403</v>
+      </c>
+      <c r="M74">
+        <v>1318.419036770981</v>
+      </c>
+      <c r="N74">
+        <v>-915.4190367709807</v>
+      </c>
+      <c r="O74">
+        <v>-135.8481850568135</v>
+      </c>
+      <c r="P74">
+        <v>-779.5708517141671</v>
+      </c>
+      <c r="Q74">
+        <v>19.42914828583287</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1611399152513743</v>
+      </c>
+      <c r="T74">
+        <v>3.216947357020643</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.04536129889816557</v>
+      </c>
+      <c r="W74">
+        <v>0.175367129392407</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.3056691300415469</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1731275094329179</v>
+      </c>
+      <c r="C75">
+        <v>-237.3325078903872</v>
+      </c>
+      <c r="D75">
+        <v>5657.370879598392</v>
+      </c>
+      <c r="E75">
+        <v>-1270.483444687631</v>
+      </c>
+      <c r="F75">
+        <v>7276.703387488779</v>
+      </c>
+      <c r="G75">
+        <v>1382</v>
+      </c>
+      <c r="H75">
+        <v>1420.9</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1202</v>
+      </c>
+      <c r="K75">
+        <v>799</v>
+      </c>
+      <c r="L75">
+        <v>403</v>
+      </c>
+      <c r="M75">
+        <v>1336.730412281689</v>
+      </c>
+      <c r="N75">
+        <v>-933.7304122816888</v>
+      </c>
+      <c r="O75">
+        <v>-138.5655931826026</v>
+      </c>
+      <c r="P75">
+        <v>-795.1648190990862</v>
+      </c>
+      <c r="Q75">
+        <v>3.83518090091377</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1667636158162401</v>
+      </c>
+      <c r="T75">
+        <v>3.336093555428814</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.04473991124202632</v>
+      </c>
+      <c r="W75">
+        <v>0.1754812783048398</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.3014818816848135</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1748715094329178</v>
+      </c>
+      <c r="C76">
+        <v>-396.6036695410703</v>
+      </c>
+      <c r="D76">
+        <v>5597.780586269473</v>
+      </c>
+      <c r="E76">
+        <v>-1170.802576365867</v>
+      </c>
+      <c r="F76">
+        <v>7376.384255810543</v>
+      </c>
+      <c r="G76">
+        <v>1382</v>
+      </c>
+      <c r="H76">
+        <v>1420.9</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1202</v>
+      </c>
+      <c r="K76">
+        <v>799</v>
+      </c>
+      <c r="L76">
+        <v>403</v>
+      </c>
+      <c r="M76">
+        <v>1355.041787792397</v>
+      </c>
+      <c r="N76">
+        <v>-952.0417877923969</v>
+      </c>
+      <c r="O76">
+        <v>-141.2830013083917</v>
+      </c>
+      <c r="P76">
+        <v>-810.7587864840052</v>
+      </c>
+      <c r="Q76">
+        <v>-11.75878648400521</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1728199087322493</v>
+      </c>
+      <c r="T76">
+        <v>3.464404846022231</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.04413531784686379</v>
+      </c>
+      <c r="W76">
+        <v>0.1755923421115311</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.2974078022025862</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1766155094329178</v>
+      </c>
+      <c r="C77">
+        <v>-554.6325617581806</v>
+      </c>
+      <c r="D77">
+        <v>5539.432562374127</v>
+      </c>
+      <c r="E77">
+        <v>-1071.121708044103</v>
+      </c>
+      <c r="F77">
+        <v>7476.065124132308</v>
+      </c>
+      <c r="G77">
+        <v>1382</v>
+      </c>
+      <c r="H77">
+        <v>1420.9</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1202</v>
+      </c>
+      <c r="K77">
+        <v>799</v>
+      </c>
+      <c r="L77">
+        <v>403</v>
+      </c>
+      <c r="M77">
+        <v>1373.353163303105</v>
+      </c>
+      <c r="N77">
+        <v>-970.353163303105</v>
+      </c>
+      <c r="O77">
+        <v>-144.0004094341808</v>
+      </c>
+      <c r="P77">
+        <v>-826.3527538689242</v>
+      </c>
+      <c r="Q77">
+        <v>-27.3527538689242</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1793607050815393</v>
+      </c>
+      <c r="T77">
+        <v>3.60298103986312</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.04354684694223895</v>
+      </c>
+      <c r="W77">
+        <v>0.1757004442167107</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.2934423648398851</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1783595094329179</v>
+      </c>
+      <c r="C78">
+        <v>-711.4576299015707</v>
+      </c>
+      <c r="D78">
+        <v>5482.288362552501</v>
+      </c>
+      <c r="E78">
+        <v>-971.4408397223388</v>
+      </c>
+      <c r="F78">
+        <v>7575.745992454072</v>
+      </c>
+      <c r="G78">
+        <v>1382</v>
+      </c>
+      <c r="H78">
+        <v>1420.9</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1202</v>
+      </c>
+      <c r="K78">
+        <v>799</v>
+      </c>
+      <c r="L78">
+        <v>403</v>
+      </c>
+      <c r="M78">
+        <v>1391.664538813813</v>
+      </c>
+      <c r="N78">
+        <v>-988.6645388138129</v>
+      </c>
+      <c r="O78">
+        <v>-146.7178175599698</v>
+      </c>
+      <c r="P78">
+        <v>-841.9467212538431</v>
+      </c>
+      <c r="Q78">
+        <v>-42.94672125384307</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1864465677932701</v>
+      </c>
+      <c r="T78">
+        <v>3.753105249857417</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.0429738621140516</v>
+      </c>
+      <c r="W78">
+        <v>0.1758057015296487</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.2895812810919919</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1801035094329179</v>
+      </c>
+      <c r="C79">
+        <v>-867.1157491360073</v>
+      </c>
+      <c r="D79">
+        <v>5426.311111639829</v>
+      </c>
+      <c r="E79">
+        <v>-871.7599714005746</v>
+      </c>
+      <c r="F79">
+        <v>7675.426860775836</v>
+      </c>
+      <c r="G79">
+        <v>1382</v>
+      </c>
+      <c r="H79">
+        <v>1420.9</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1202</v>
+      </c>
+      <c r="K79">
+        <v>799</v>
+      </c>
+      <c r="L79">
+        <v>403</v>
+      </c>
+      <c r="M79">
+        <v>1409.975914324521</v>
+      </c>
+      <c r="N79">
+        <v>-1006.975914324521</v>
+      </c>
+      <c r="O79">
+        <v>-149.4352256857589</v>
+      </c>
+      <c r="P79">
+        <v>-857.540688638762</v>
+      </c>
+      <c r="Q79">
+        <v>-58.54068863876205</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.194148592479934</v>
+      </c>
+      <c r="T79">
+        <v>3.916283738981652</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.0424157600086743</v>
+      </c>
+      <c r="W79">
+        <v>0.1759082248864065</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.2858204852336543</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1818475094329178</v>
+      </c>
+      <c r="C80">
+        <v>-1021.642303783827</v>
+      </c>
+      <c r="D80">
+        <v>5371.465425313773</v>
+      </c>
+      <c r="E80">
+        <v>-772.0791030788105</v>
+      </c>
+      <c r="F80">
+        <v>7775.1077290976</v>
+      </c>
+      <c r="G80">
+        <v>1382</v>
+      </c>
+      <c r="H80">
+        <v>1420.9</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1202</v>
+      </c>
+      <c r="K80">
+        <v>799</v>
+      </c>
+      <c r="L80">
+        <v>403</v>
+      </c>
+      <c r="M80">
+        <v>1428.287289835229</v>
+      </c>
+      <c r="N80">
+        <v>-1025.287289835229</v>
+      </c>
+      <c r="O80">
+        <v>-152.152633811548</v>
+      </c>
+      <c r="P80">
+        <v>-873.1346560236811</v>
+      </c>
+      <c r="Q80">
+        <v>-74.13465602368115</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2025508012290219</v>
+      </c>
+      <c r="T80">
+        <v>4.094296636208091</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.0418719682136913</v>
+      </c>
+      <c r="W80">
+        <v>0.1760081194391449</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.282156120038351</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1835915094329179</v>
+      </c>
+      <c r="C81">
+        <v>-1175.071261913447</v>
+      </c>
+      <c r="D81">
+        <v>5317.717335505917</v>
+      </c>
+      <c r="E81">
+        <v>-672.3982347570463</v>
+      </c>
+      <c r="F81">
+        <v>7874.788597419364</v>
+      </c>
+      <c r="G81">
+        <v>1382</v>
+      </c>
+      <c r="H81">
+        <v>1420.9</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1202</v>
+      </c>
+      <c r="K81">
+        <v>799</v>
+      </c>
+      <c r="L81">
+        <v>403</v>
+      </c>
+      <c r="M81">
+        <v>1446.598665345937</v>
+      </c>
+      <c r="N81">
+        <v>-1043.598665345937</v>
+      </c>
+      <c r="O81">
+        <v>-154.8700419373371</v>
+      </c>
+      <c r="P81">
+        <v>-888.7286234086001</v>
+      </c>
+      <c r="Q81">
+        <v>-89.72862340860013</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2117532203351658</v>
+      </c>
+      <c r="T81">
+        <v>4.289263142694192</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.04134194329959394</v>
+      </c>
+      <c r="W81">
+        <v>0.1761054850158646</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.2785845235821693</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1853355094329178</v>
+      </c>
+      <c r="C82">
+        <v>-1327.435245494161</v>
+      </c>
+      <c r="D82">
+        <v>5265.034220246967</v>
+      </c>
+      <c r="E82">
+        <v>-572.7173664352822</v>
+      </c>
+      <c r="F82">
+        <v>7974.469465741128</v>
+      </c>
+      <c r="G82">
+        <v>1382</v>
+      </c>
+      <c r="H82">
+        <v>1420.9</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1202</v>
+      </c>
+      <c r="K82">
+        <v>799</v>
+      </c>
+      <c r="L82">
+        <v>403</v>
+      </c>
+      <c r="M82">
+        <v>1464.910040856645</v>
+      </c>
+      <c r="N82">
+        <v>-1061.910040856645</v>
+      </c>
+      <c r="O82">
+        <v>-157.5874500631262</v>
+      </c>
+      <c r="P82">
+        <v>-904.3225907935191</v>
+      </c>
+      <c r="Q82">
+        <v>-105.3225907935191</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2218758813519241</v>
+      </c>
+      <c r="T82">
+        <v>4.503726299828901</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.04082516900834901</v>
+      </c>
+      <c r="W82">
+        <v>0.1762004164531663</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.2751022170373922</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1870795094329178</v>
+      </c>
+      <c r="C83">
+        <v>-1478.765596421654</v>
+      </c>
+      <c r="D83">
+        <v>5213.384737641239</v>
+      </c>
+      <c r="E83">
+        <v>-473.0364981135181</v>
+      </c>
+      <c r="F83">
+        <v>8074.150334062892</v>
+      </c>
+      <c r="G83">
+        <v>1382</v>
+      </c>
+      <c r="H83">
+        <v>1420.9</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1202</v>
+      </c>
+      <c r="K83">
+        <v>799</v>
+      </c>
+      <c r="L83">
+        <v>403</v>
+      </c>
+      <c r="M83">
+        <v>1483.221416367353</v>
+      </c>
+      <c r="N83">
+        <v>-1080.221416367353</v>
+      </c>
+      <c r="O83">
+        <v>-160.3048581889153</v>
+      </c>
+      <c r="P83">
+        <v>-919.9165581784382</v>
+      </c>
+      <c r="Q83">
+        <v>-120.9165581784382</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2330640856336043</v>
+      </c>
+      <c r="T83">
+        <v>4.740764526135685</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.04032115457614718</v>
+      </c>
+      <c r="W83">
+        <v>0.1762930039043618</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.271705893370264</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1888235094329179</v>
+      </c>
+      <c r="C84">
+        <v>-1629.092438695058</v>
+      </c>
+      <c r="D84">
+        <v>5162.738763689598</v>
+      </c>
+      <c r="E84">
+        <v>-373.3556297917539</v>
+      </c>
+      <c r="F84">
+        <v>8173.831202384657</v>
+      </c>
+      <c r="G84">
+        <v>1382</v>
+      </c>
+      <c r="H84">
+        <v>1420.9</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1202</v>
+      </c>
+      <c r="K84">
+        <v>799</v>
+      </c>
+      <c r="L84">
+        <v>403</v>
+      </c>
+      <c r="M84">
+        <v>1501.532791878062</v>
+      </c>
+      <c r="N84">
+        <v>-1098.532791878062</v>
+      </c>
+      <c r="O84">
+        <v>-163.0222663147043</v>
+      </c>
+      <c r="P84">
+        <v>-935.5105255633572</v>
+      </c>
+      <c r="Q84">
+        <v>-136.5105255633572</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2454954237243601</v>
+      </c>
+      <c r="T84">
+        <v>5.004140333143224</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.03982943317887708</v>
+      </c>
+      <c r="W84">
+        <v>0.1763833331250403</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.2683924068657485</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1905675094329178</v>
+      </c>
+      <c r="C85">
+        <v>-1778.444737004703</v>
+      </c>
+      <c r="D85">
+        <v>5113.067333701719</v>
+      </c>
+      <c r="E85">
+        <v>-273.6747614699889</v>
+      </c>
+      <c r="F85">
+        <v>8273.512070706422</v>
+      </c>
+      <c r="G85">
+        <v>1382</v>
+      </c>
+      <c r="H85">
+        <v>1420.9</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1202</v>
+      </c>
+      <c r="K85">
+        <v>799</v>
+      </c>
+      <c r="L85">
+        <v>403</v>
+      </c>
+      <c r="M85">
+        <v>1519.84416738877</v>
+      </c>
+      <c r="N85">
+        <v>-1116.84416738877</v>
+      </c>
+      <c r="O85">
+        <v>-165.7396744404934</v>
+      </c>
+      <c r="P85">
+        <v>-951.1044929482762</v>
+      </c>
+      <c r="Q85">
+        <v>-152.1044929482762</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2593892721787343</v>
+      </c>
+      <c r="T85">
+        <v>5.298501529210472</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.03934956048997495</v>
+      </c>
+      <c r="W85">
+        <v>0.1764714857379916</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.2651587634095347</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1923115094329179</v>
+      </c>
+      <c r="C86">
+        <v>-1926.850351970033</v>
+      </c>
+      <c r="D86">
+        <v>5064.34258705815</v>
+      </c>
+      <c r="E86">
+        <v>-173.9938931482266</v>
+      </c>
+      <c r="F86">
+        <v>8373.192939028184</v>
+      </c>
+      <c r="G86">
+        <v>1382</v>
+      </c>
+      <c r="H86">
+        <v>1420.9</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1202</v>
+      </c>
+      <c r="K86">
+        <v>799</v>
+      </c>
+      <c r="L86">
+        <v>403</v>
+      </c>
+      <c r="M86">
+        <v>1538.155542899477</v>
+      </c>
+      <c r="N86">
+        <v>-1135.155542899477</v>
+      </c>
+      <c r="O86">
+        <v>-168.4570825662825</v>
+      </c>
+      <c r="P86">
+        <v>-966.698460333195</v>
+      </c>
+      <c r="Q86">
+        <v>-167.698460333195</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2750198516899051</v>
+      </c>
+      <c r="T86">
+        <v>5.629657874786124</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.03888111334128477</v>
+      </c>
+      <c r="W86">
+        <v>0.176557539479206</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.2620021114641831</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1940555094329178</v>
+      </c>
+      <c r="C87">
+        <v>-2074.336092249004</v>
+      </c>
+      <c r="D87">
+        <v>5016.537715100944</v>
+      </c>
+      <c r="E87">
+        <v>-74.31302482646242</v>
+      </c>
+      <c r="F87">
+        <v>8472.873807349948</v>
+      </c>
+      <c r="G87">
+        <v>1382</v>
+      </c>
+      <c r="H87">
+        <v>1420.9</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1202</v>
+      </c>
+      <c r="K87">
+        <v>799</v>
+      </c>
+      <c r="L87">
+        <v>403</v>
+      </c>
+      <c r="M87">
+        <v>1556.466918410185</v>
+      </c>
+      <c r="N87">
+        <v>-1153.466918410185</v>
+      </c>
+      <c r="O87">
+        <v>-171.1744906920715</v>
+      </c>
+      <c r="P87">
+        <v>-982.2924277181139</v>
+      </c>
+      <c r="Q87">
+        <v>-183.2924277181139</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.292734508469232</v>
+      </c>
+      <c r="T87">
+        <v>6.004968399771866</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.03842368847844613</v>
+      </c>
+      <c r="W87">
+        <v>0.1766415684265094</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.2589197336822516</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1957995094329178</v>
+      </c>
+      <c r="C88">
+        <v>-2220.927763723755</v>
+      </c>
+      <c r="D88">
+        <v>4969.626911947958</v>
+      </c>
+      <c r="E88">
+        <v>25.36784349530171</v>
+      </c>
+      <c r="F88">
+        <v>8572.554675671712</v>
+      </c>
+      <c r="G88">
+        <v>1382</v>
+      </c>
+      <c r="H88">
+        <v>1420.9</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1202</v>
+      </c>
+      <c r="K88">
+        <v>799</v>
+      </c>
+      <c r="L88">
+        <v>403</v>
+      </c>
+      <c r="M88">
+        <v>1574.778293920893</v>
+      </c>
+      <c r="N88">
+        <v>-1171.778293920893</v>
+      </c>
+      <c r="O88">
+        <v>-173.8918988178606</v>
+      </c>
+      <c r="P88">
+        <v>-997.8863951030329</v>
+      </c>
+      <c r="Q88">
+        <v>-198.8863951030329</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3129798305027486</v>
+      </c>
+      <c r="T88">
+        <v>6.433894714041285</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.03797690140311537</v>
+      </c>
+      <c r="W88">
+        <v>0.1767236432122477</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.255909039104551</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1975435094329178</v>
+      </c>
+      <c r="C89">
+        <v>-2366.650215952165</v>
+      </c>
+      <c r="D89">
+        <v>4923.585328041311</v>
+      </c>
+      <c r="E89">
+        <v>125.0487118170659</v>
+      </c>
+      <c r="F89">
+        <v>8672.235543993476</v>
+      </c>
+      <c r="G89">
+        <v>1382</v>
+      </c>
+      <c r="H89">
+        <v>1420.9</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1202</v>
+      </c>
+      <c r="K89">
+        <v>799</v>
+      </c>
+      <c r="L89">
+        <v>403</v>
+      </c>
+      <c r="M89">
+        <v>1593.089669431602</v>
+      </c>
+      <c r="N89">
+        <v>-1190.089669431602</v>
+      </c>
+      <c r="O89">
+        <v>-176.6093069436497</v>
+      </c>
+      <c r="P89">
+        <v>-1013.480362487952</v>
+      </c>
+      <c r="Q89">
+        <v>-214.4803624879519</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3363398174644985</v>
+      </c>
+      <c r="T89">
+        <v>6.928809692044461</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.03754038529503358</v>
+      </c>
+      <c r="W89">
+        <v>0.1768038312213023</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.2529675558964527</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1992875094329179</v>
+      </c>
+      <c r="C90">
+        <v>-2511.527386061001</v>
+      </c>
+      <c r="D90">
+        <v>4878.389026254239</v>
+      </c>
+      <c r="E90">
+        <v>224.72958013883</v>
+      </c>
+      <c r="F90">
+        <v>8771.91641231524</v>
+      </c>
+      <c r="G90">
+        <v>1382</v>
+      </c>
+      <c r="H90">
+        <v>1420.9</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1202</v>
+      </c>
+      <c r="K90">
+        <v>799</v>
+      </c>
+      <c r="L90">
+        <v>403</v>
+      </c>
+      <c r="M90">
+        <v>1611.40104494231</v>
+      </c>
+      <c r="N90">
+        <v>-1208.40104494231</v>
+      </c>
+      <c r="O90">
+        <v>-179.3267150694388</v>
+      </c>
+      <c r="P90">
+        <v>-1029.074329872871</v>
+      </c>
+      <c r="Q90">
+        <v>-230.074329872871</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3635931355865402</v>
+      </c>
+      <c r="T90">
+        <v>7.506210499714834</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.03711379000759001</v>
+      </c>
+      <c r="W90">
+        <v>0.1768821967756057</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.2500929245794475</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2010315094329178</v>
+      </c>
+      <c r="C91">
+        <v>-2655.582340243513</v>
+      </c>
+      <c r="D91">
+        <v>4834.014940393491</v>
+      </c>
+      <c r="E91">
+        <v>324.4104484605941</v>
+      </c>
+      <c r="F91">
+        <v>8871.597280637005</v>
+      </c>
+      <c r="G91">
+        <v>1382</v>
+      </c>
+      <c r="H91">
+        <v>1420.9</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1202</v>
+      </c>
+      <c r="K91">
+        <v>799</v>
+      </c>
+      <c r="L91">
+        <v>403</v>
+      </c>
+      <c r="M91">
+        <v>1629.712420453018</v>
+      </c>
+      <c r="N91">
+        <v>-1226.712420453018</v>
+      </c>
+      <c r="O91">
+        <v>-182.0441231952279</v>
+      </c>
+      <c r="P91">
+        <v>-1044.66829725779</v>
+      </c>
+      <c r="Q91">
+        <v>-245.6682972577898</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3958016024580438</v>
+      </c>
+      <c r="T91">
+        <v>8.188593272416183</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.03669678113110024</v>
+      </c>
+      <c r="W91">
+        <v>0.1769588013062169</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.2472828917190043</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2027755094329178</v>
+      </c>
+      <c r="C92">
+        <v>-2798.83731301269</v>
+      </c>
+      <c r="D92">
+        <v>4790.440835946079</v>
+      </c>
+      <c r="E92">
+        <v>424.0913167823583</v>
+      </c>
+      <c r="F92">
+        <v>8971.278148958769</v>
+      </c>
+      <c r="G92">
+        <v>1382</v>
+      </c>
+      <c r="H92">
+        <v>1420.9</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1202</v>
+      </c>
+      <c r="K92">
+        <v>799</v>
+      </c>
+      <c r="L92">
+        <v>403</v>
+      </c>
+      <c r="M92">
+        <v>1648.023795963726</v>
+      </c>
+      <c r="N92">
+        <v>-1245.023795963726</v>
+      </c>
+      <c r="O92">
+        <v>-184.7615313210169</v>
+      </c>
+      <c r="P92">
+        <v>-1060.262264642709</v>
+      </c>
+      <c r="Q92">
+        <v>-261.2622646427089</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4344517627038482</v>
+      </c>
+      <c r="T92">
+        <v>9.007452599657801</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.03628903911853246</v>
+      </c>
+      <c r="W92">
+        <v>0.1770337035139256</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.2445353040332375</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2045195094329179</v>
+      </c>
+      <c r="C93">
+        <v>-2941.313744350459</v>
+      </c>
+      <c r="D93">
+        <v>4747.645272930074</v>
+      </c>
+      <c r="E93">
+        <v>523.7721851041224</v>
+      </c>
+      <c r="F93">
+        <v>9070.959017280533</v>
+      </c>
+      <c r="G93">
+        <v>1382</v>
+      </c>
+      <c r="H93">
+        <v>1420.9</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1202</v>
+      </c>
+      <c r="K93">
+        <v>799</v>
+      </c>
+      <c r="L93">
+        <v>403</v>
+      </c>
+      <c r="M93">
+        <v>1666.335171474434</v>
+      </c>
+      <c r="N93">
+        <v>-1263.335171474434</v>
+      </c>
+      <c r="O93">
+        <v>-187.478939446806</v>
+      </c>
+      <c r="P93">
+        <v>-1075.856232027628</v>
+      </c>
+      <c r="Q93">
+        <v>-276.856232027628</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4816908474487203</v>
+      </c>
+      <c r="T93">
+        <v>10.00828066628645</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.03589025846887826</v>
+      </c>
+      <c r="W93">
+        <v>0.1771069595192671</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.2418481028900151</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2062635094329178</v>
+      </c>
+      <c r="C94">
+        <v>-3083.032314883301</v>
+      </c>
+      <c r="D94">
+        <v>4705.607570718996</v>
+      </c>
+      <c r="E94">
+        <v>623.4530534258865</v>
+      </c>
+      <c r="F94">
+        <v>9170.639885602297</v>
+      </c>
+      <c r="G94">
+        <v>1382</v>
+      </c>
+      <c r="H94">
+        <v>1420.9</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1202</v>
+      </c>
+      <c r="K94">
+        <v>799</v>
+      </c>
+      <c r="L94">
+        <v>403</v>
+      </c>
+      <c r="M94">
+        <v>1684.646546985142</v>
+      </c>
+      <c r="N94">
+        <v>-1281.646546985142</v>
+      </c>
+      <c r="O94">
+        <v>-190.196347572595</v>
+      </c>
+      <c r="P94">
+        <v>-1091.450199412547</v>
+      </c>
+      <c r="Q94">
+        <v>-292.4501994125469</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5407397033798105</v>
+      </c>
+      <c r="T94">
+        <v>11.25931574957226</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.03550014696378176</v>
+      </c>
+      <c r="W94">
+        <v>0.1771786230027533</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.2392193191629498</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2080075094329178</v>
+      </c>
+      <c r="C95">
+        <v>-3224.012979205501</v>
+      </c>
+      <c r="D95">
+        <v>4664.30777471856</v>
+      </c>
+      <c r="E95">
+        <v>723.1339217476507</v>
+      </c>
+      <c r="F95">
+        <v>9270.320753924061</v>
+      </c>
+      <c r="G95">
+        <v>1382</v>
+      </c>
+      <c r="H95">
+        <v>1420.9</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1202</v>
+      </c>
+      <c r="K95">
+        <v>799</v>
+      </c>
+      <c r="L95">
+        <v>403</v>
+      </c>
+      <c r="M95">
+        <v>1702.95792249585</v>
+      </c>
+      <c r="N95">
+        <v>-1299.95792249585</v>
+      </c>
+      <c r="O95">
+        <v>-192.9137556983841</v>
+      </c>
+      <c r="P95">
+        <v>-1107.044166797466</v>
+      </c>
+      <c r="Q95">
+        <v>-308.0441667974658</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6166596610054977</v>
+      </c>
+      <c r="T95">
+        <v>12.86778942808258</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.03511842495341851</v>
+      </c>
+      <c r="W95">
+        <v>0.177248745336057</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.2366470684192622</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2097515094329178</v>
+      </c>
+      <c r="C96">
+        <v>-3364.274997462837</v>
+      </c>
+      <c r="D96">
+        <v>4623.726624782988</v>
+      </c>
+      <c r="E96">
+        <v>822.8147900694148</v>
+      </c>
+      <c r="F96">
+        <v>9370.001622245825</v>
+      </c>
+      <c r="G96">
+        <v>1382</v>
+      </c>
+      <c r="H96">
+        <v>1420.9</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1202</v>
+      </c>
+      <c r="K96">
+        <v>799</v>
+      </c>
+      <c r="L96">
+        <v>403</v>
+      </c>
+      <c r="M96">
+        <v>1721.269298006558</v>
+      </c>
+      <c r="N96">
+        <v>-1318.269298006558</v>
+      </c>
+      <c r="O96">
+        <v>-195.6311638241732</v>
+      </c>
+      <c r="P96">
+        <v>-1122.638134182385</v>
+      </c>
+      <c r="Q96">
+        <v>-323.6381341823849</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7178862711730809</v>
+      </c>
+      <c r="T96">
+        <v>15.01242099942968</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.03474482468795661</v>
+      </c>
+      <c r="W96">
+        <v>0.1773173757048224</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.234129546414802</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2114955094329179</v>
+      </c>
+      <c r="C97">
+        <v>-3503.836965301785</v>
+      </c>
+      <c r="D97">
+        <v>4583.845525265804</v>
+      </c>
+      <c r="E97">
+        <v>922.4956583911789</v>
+      </c>
+      <c r="F97">
+        <v>9469.682490567589</v>
+      </c>
+      <c r="G97">
+        <v>1382</v>
+      </c>
+      <c r="H97">
+        <v>1420.9</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1202</v>
+      </c>
+      <c r="K97">
+        <v>799</v>
+      </c>
+      <c r="L97">
+        <v>403</v>
+      </c>
+      <c r="M97">
+        <v>1739.580673517266</v>
+      </c>
+      <c r="N97">
+        <v>-1336.580673517266</v>
+      </c>
+      <c r="O97">
+        <v>-198.3485719499623</v>
+      </c>
+      <c r="P97">
+        <v>-1138.232101567304</v>
+      </c>
+      <c r="Q97">
+        <v>-339.2321015673037</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.8596035254076976</v>
+      </c>
+      <c r="T97">
+        <v>18.01490519931563</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.03437908969124127</v>
+      </c>
+      <c r="W97">
+        <v>0.177384561223719</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.2316650248735935</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2132395094329178</v>
+      </c>
+      <c r="C98">
+        <v>-3642.71684228201</v>
+      </c>
+      <c r="D98">
+        <v>4544.646516607343</v>
+      </c>
+      <c r="E98">
+        <v>1022.176526712943</v>
+      </c>
+      <c r="F98">
+        <v>9569.363358889354</v>
+      </c>
+      <c r="G98">
+        <v>1382</v>
+      </c>
+      <c r="H98">
+        <v>1420.9</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1202</v>
+      </c>
+      <c r="K98">
+        <v>799</v>
+      </c>
+      <c r="L98">
+        <v>403</v>
+      </c>
+      <c r="M98">
+        <v>1757.892049027974</v>
+      </c>
+      <c r="N98">
+        <v>-1354.892049027974</v>
+      </c>
+      <c r="O98">
+        <v>-201.0659800757514</v>
+      </c>
+      <c r="P98">
+        <v>-1153.826068952223</v>
+      </c>
+      <c r="Q98">
+        <v>-354.8260689522228</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.07217940675962</v>
+      </c>
+      <c r="T98">
+        <v>22.51863149914448</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.03402097417362418</v>
+      </c>
+      <c r="W98">
+        <v>0.1774503470443052</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.2292518475311602</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2149835094329178</v>
+      </c>
+      <c r="C99">
+        <v>-3780.931978843437</v>
+      </c>
+      <c r="D99">
+        <v>4506.112248367681</v>
+      </c>
+      <c r="E99">
+        <v>1121.857395034707</v>
+      </c>
+      <c r="F99">
+        <v>9669.044227211118</v>
+      </c>
+      <c r="G99">
+        <v>1382</v>
+      </c>
+      <c r="H99">
+        <v>1420.9</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1202</v>
+      </c>
+      <c r="K99">
+        <v>799</v>
+      </c>
+      <c r="L99">
+        <v>403</v>
+      </c>
+      <c r="M99">
+        <v>1776.203424538682</v>
+      </c>
+      <c r="N99">
+        <v>-1373.203424538682</v>
+      </c>
+      <c r="O99">
+        <v>-203.7833882015405</v>
+      </c>
+      <c r="P99">
+        <v>-1169.420036337142</v>
+      </c>
+      <c r="Q99">
+        <v>-370.4200363371419</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.426472542346159</v>
+      </c>
+      <c r="T99">
+        <v>30.02484199885931</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.03367024248111259</v>
+      </c>
+      <c r="W99">
+        <v>0.1775147764562196</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.2268884264225915</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2167275094329179</v>
+      </c>
+      <c r="C100">
+        <v>-3918.499141912885</v>
+      </c>
+      <c r="D100">
+        <v>4468.225953619997</v>
+      </c>
+      <c r="E100">
+        <v>1221.538263356471</v>
+      </c>
+      <c r="F100">
+        <v>9768.725095532882</v>
+      </c>
+      <c r="G100">
+        <v>1382</v>
+      </c>
+      <c r="H100">
+        <v>1420.9</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1202</v>
+      </c>
+      <c r="K100">
+        <v>799</v>
+      </c>
+      <c r="L100">
+        <v>403</v>
+      </c>
+      <c r="M100">
+        <v>1794.51480004939</v>
+      </c>
+      <c r="N100">
+        <v>-1391.51480004939</v>
+      </c>
+      <c r="O100">
+        <v>-206.5007963273296</v>
+      </c>
+      <c r="P100">
+        <v>-1185.014003722061</v>
+      </c>
+      <c r="Q100">
+        <v>-386.0140037220608</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.135058813519239</v>
+      </c>
+      <c r="T100">
+        <v>45.03726299828897</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.0333266685782441</v>
+      </c>
+      <c r="W100">
+        <v>0.1775778909821766</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.2245732383978712</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2184715094329178</v>
+      </c>
+      <c r="C101">
+        <v>-4055.434539229727</v>
+      </c>
+      <c r="D101">
+        <v>4430.971424624919</v>
+      </c>
+      <c r="E101">
+        <v>1321.219131678235</v>
+      </c>
+      <c r="F101">
+        <v>9868.405963854646</v>
+      </c>
+      <c r="G101">
+        <v>1382</v>
+      </c>
+      <c r="H101">
+        <v>1420.9</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1202</v>
+      </c>
+      <c r="K101">
+        <v>799</v>
+      </c>
+      <c r="L101">
+        <v>403</v>
+      </c>
+      <c r="M101">
+        <v>1812.826175560099</v>
+      </c>
+      <c r="N101">
+        <v>-1409.826175560099</v>
+      </c>
+      <c r="O101">
+        <v>-209.2182044531186</v>
+      </c>
+      <c r="P101">
+        <v>-1200.60797110698</v>
+      </c>
+      <c r="Q101">
+        <v>-401.6079711069799</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.260817627038477</v>
+      </c>
+      <c r="T101">
+        <v>90.07452599657792</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.03299003556230223</v>
+      </c>
+      <c r="W101">
+        <v>0.1776397304672051</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.2223048218483978</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
